--- a/NAV/Luxury_Goods.xlsx
+++ b/NAV/Luxury_Goods.xlsx
@@ -506,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J610"/>
+  <dimension ref="A1:J631"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
       <selection activeCell="G585" sqref="G585"/>
@@ -18572,6 +18572,657 @@
         <v>217.5326560482892</v>
       </c>
     </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="C611" t="n">
+        <v>1746.650024414062</v>
+      </c>
+      <c r="D611" t="n">
+        <v>1322.349975585938</v>
+      </c>
+      <c r="E611" t="n">
+        <v>1771.75</v>
+      </c>
+      <c r="F611" t="n">
+        <v>2073.949951171875</v>
+      </c>
+      <c r="G611" t="n">
+        <v>462.7999877929688</v>
+      </c>
+      <c r="H611" t="n">
+        <v>8303.099914550781</v>
+      </c>
+      <c r="I611" t="n">
+        <v>0</v>
+      </c>
+      <c r="J611" t="n">
+        <v>217.5326560482892</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="C612" t="n">
+        <v>1695.900024414062</v>
+      </c>
+      <c r="D612" t="n">
+        <v>1307.849975585938</v>
+      </c>
+      <c r="E612" t="n">
+        <v>1788.400024414062</v>
+      </c>
+      <c r="F612" t="n">
+        <v>2194.800048828125</v>
+      </c>
+      <c r="G612" t="n">
+        <v>465</v>
+      </c>
+      <c r="H612" t="n">
+        <v>8381.950073242188</v>
+      </c>
+      <c r="I612" t="n">
+        <v>0.009496472342001468</v>
+      </c>
+      <c r="J612" t="n">
+        <v>219.5984488999339</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="C613" t="n">
+        <v>1703.900024414062</v>
+      </c>
+      <c r="D613" t="n">
+        <v>1306.050048828125</v>
+      </c>
+      <c r="E613" t="n">
+        <v>1743.650024414062</v>
+      </c>
+      <c r="F613" t="n">
+        <v>2183.5</v>
+      </c>
+      <c r="G613" t="n">
+        <v>477.0499877929688</v>
+      </c>
+      <c r="H613" t="n">
+        <v>8368.250061035156</v>
+      </c>
+      <c r="I613" t="n">
+        <v>-0.001634465975974491</v>
+      </c>
+      <c r="J613" t="n">
+        <v>219.2395227068302</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C614" t="n">
+        <v>1660.599975585938</v>
+      </c>
+      <c r="D614" t="n">
+        <v>1280.449951171875</v>
+      </c>
+      <c r="E614" t="n">
+        <v>1769.650024414062</v>
+      </c>
+      <c r="F614" t="n">
+        <v>2220.5</v>
+      </c>
+      <c r="G614" t="n">
+        <v>464.8500061035156</v>
+      </c>
+      <c r="H614" t="n">
+        <v>8325.749969482422</v>
+      </c>
+      <c r="I614" t="n">
+        <v>-0.005078731065963999</v>
+      </c>
+      <c r="J614" t="n">
+        <v>218.1260641319719</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C615" t="n">
+        <v>1683.75</v>
+      </c>
+      <c r="D615" t="n">
+        <v>1248.449951171875</v>
+      </c>
+      <c r="E615" t="n">
+        <v>1810.949951171875</v>
+      </c>
+      <c r="F615" t="n">
+        <v>2205.5</v>
+      </c>
+      <c r="G615" t="n">
+        <v>469.6000061035156</v>
+      </c>
+      <c r="H615" t="n">
+        <v>8357.449920654297</v>
+      </c>
+      <c r="I615" t="n">
+        <v>0.003807458942205738</v>
+      </c>
+      <c r="J615" t="n">
+        <v>218.9565701653793</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C616" t="n">
+        <v>1699.5</v>
+      </c>
+      <c r="D616" t="n">
+        <v>1288.900024414062</v>
+      </c>
+      <c r="E616" t="n">
+        <v>1780.25</v>
+      </c>
+      <c r="F616" t="n">
+        <v>2217.949951171875</v>
+      </c>
+      <c r="G616" t="n">
+        <v>466.5499877929688</v>
+      </c>
+      <c r="H616" t="n">
+        <v>8386.249938964844</v>
+      </c>
+      <c r="I616" t="n">
+        <v>0.003446029420932761</v>
+      </c>
+      <c r="J616" t="n">
+        <v>219.7111009480757</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>1694.699951171875</v>
+      </c>
+      <c r="D617" t="n">
+        <v>1272.300048828125</v>
+      </c>
+      <c r="E617" t="n">
+        <v>1783.150024414062</v>
+      </c>
+      <c r="F617" t="n">
+        <v>2236.14990234375</v>
+      </c>
+      <c r="G617" t="n">
+        <v>467.75</v>
+      </c>
+      <c r="H617" t="n">
+        <v>8389.549926757812</v>
+      </c>
+      <c r="I617" t="n">
+        <v>0.0003934998142180441</v>
+      </c>
+      <c r="J617" t="n">
+        <v>219.7975572254804</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>1724.449951171875</v>
+      </c>
+      <c r="D618" t="n">
+        <v>1234.300048828125</v>
+      </c>
+      <c r="E618" t="n">
+        <v>1778.650024414062</v>
+      </c>
+      <c r="F618" t="n">
+        <v>2224.39990234375</v>
+      </c>
+      <c r="G618" t="n">
+        <v>463.3999938964844</v>
+      </c>
+      <c r="H618" t="n">
+        <v>8351.999908447266</v>
+      </c>
+      <c r="I618" t="n">
+        <v>-0.004475808432915339</v>
+      </c>
+      <c r="J618" t="n">
+        <v>218.8137854653164</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>1789.300048828125</v>
+      </c>
+      <c r="D619" t="n">
+        <v>1234.300048828125</v>
+      </c>
+      <c r="E619" t="n">
+        <v>1817.949951171875</v>
+      </c>
+      <c r="F619" t="n">
+        <v>2138.60009765625</v>
+      </c>
+      <c r="G619" t="n">
+        <v>460.7999877929688</v>
+      </c>
+      <c r="H619" t="n">
+        <v>8362.550109863281</v>
+      </c>
+      <c r="I619" t="n">
+        <v>0.001263194627833399</v>
+      </c>
+      <c r="J619" t="n">
+        <v>219.0901898636121</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>1799.949951171875</v>
+      </c>
+      <c r="D620" t="n">
+        <v>1249.650024414062</v>
+      </c>
+      <c r="E620" t="n">
+        <v>1830.099975585938</v>
+      </c>
+      <c r="F620" t="n">
+        <v>2140.14990234375</v>
+      </c>
+      <c r="G620" t="n">
+        <v>466.9500122070312</v>
+      </c>
+      <c r="H620" t="n">
+        <v>8420.699890136719</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0.006953594239734628</v>
+      </c>
+      <c r="J620" t="n">
+        <v>220.6136541458301</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>1788.25</v>
+      </c>
+      <c r="D621" t="n">
+        <v>1255</v>
+      </c>
+      <c r="E621" t="n">
+        <v>1828.699951171875</v>
+      </c>
+      <c r="F621" t="n">
+        <v>2119.85009765625</v>
+      </c>
+      <c r="G621" t="n">
+        <v>459.2999877929688</v>
+      </c>
+      <c r="H621" t="n">
+        <v>8369.700012207031</v>
+      </c>
+      <c r="I621" t="n">
+        <v>-0.006056489198650145</v>
+      </c>
+      <c r="J621" t="n">
+        <v>219.2775099324211</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>1816.650024414062</v>
+      </c>
+      <c r="D622" t="n">
+        <v>1257.449951171875</v>
+      </c>
+      <c r="E622" t="n">
+        <v>1852.949951171875</v>
+      </c>
+      <c r="F622" t="n">
+        <v>2111</v>
+      </c>
+      <c r="G622" t="n">
+        <v>459</v>
+      </c>
+      <c r="H622" t="n">
+        <v>8415.049926757812</v>
+      </c>
+      <c r="I622" t="n">
+        <v>0.005418344084571652</v>
+      </c>
+      <c r="J622" t="n">
+        <v>220.4656309312431</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>1888</v>
+      </c>
+      <c r="D623" t="n">
+        <v>1264.349975585938</v>
+      </c>
+      <c r="E623" t="n">
+        <v>1921.550048828125</v>
+      </c>
+      <c r="F623" t="n">
+        <v>2101.35009765625</v>
+      </c>
+      <c r="G623" t="n">
+        <v>451.75</v>
+      </c>
+      <c r="H623" t="n">
+        <v>8530.500122070312</v>
+      </c>
+      <c r="I623" t="n">
+        <v>0.01371949023681921</v>
+      </c>
+      <c r="J623" t="n">
+        <v>223.4903070023585</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>1934.900024414062</v>
+      </c>
+      <c r="D624" t="n">
+        <v>1259.75</v>
+      </c>
+      <c r="E624" t="n">
+        <v>1916</v>
+      </c>
+      <c r="F624" t="n">
+        <v>2047.199951171875</v>
+      </c>
+      <c r="G624" t="n">
+        <v>447.8999938964844</v>
+      </c>
+      <c r="H624" t="n">
+        <v>8501.549957275391</v>
+      </c>
+      <c r="I624" t="n">
+        <v>-0.003393724210849177</v>
+      </c>
+      <c r="J624" t="n">
+        <v>222.7318425365945</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>1891.199951171875</v>
+      </c>
+      <c r="D625" t="n">
+        <v>1257.550048828125</v>
+      </c>
+      <c r="E625" t="n">
+        <v>1904.050048828125</v>
+      </c>
+      <c r="F625" t="n">
+        <v>2034.699951171875</v>
+      </c>
+      <c r="G625" t="n">
+        <v>452.75</v>
+      </c>
+      <c r="H625" t="n">
+        <v>8445.75</v>
+      </c>
+      <c r="I625" t="n">
+        <v>-0.006563504014657771</v>
+      </c>
+      <c r="J625" t="n">
+        <v>221.2699411939134</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>1879.449951171875</v>
+      </c>
+      <c r="D626" t="n">
+        <v>1232.050048828125</v>
+      </c>
+      <c r="E626" t="n">
+        <v>1889.400024414062</v>
+      </c>
+      <c r="F626" t="n">
+        <v>2042.550048828125</v>
+      </c>
+      <c r="G626" t="n">
+        <v>448.8500061035156</v>
+      </c>
+      <c r="H626" t="n">
+        <v>8390.000091552734</v>
+      </c>
+      <c r="I626" t="n">
+        <v>-0.006600942302017657</v>
+      </c>
+      <c r="J626" t="n">
+        <v>219.8093510789215</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>1866.650024414062</v>
+      </c>
+      <c r="D627" t="n">
+        <v>1234.5</v>
+      </c>
+      <c r="E627" t="n">
+        <v>1929.199951171875</v>
+      </c>
+      <c r="F627" t="n">
+        <v>2025.699951171875</v>
+      </c>
+      <c r="G627" t="n">
+        <v>450</v>
+      </c>
+      <c r="H627" t="n">
+        <v>8406.049926757812</v>
+      </c>
+      <c r="I627" t="n">
+        <v>0.00191297199403341</v>
+      </c>
+      <c r="J627" t="n">
+        <v>220.2298402115621</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>1930.099975585938</v>
+      </c>
+      <c r="D628" t="n">
+        <v>1246.550048828125</v>
+      </c>
+      <c r="E628" t="n">
+        <v>1928.400024414062</v>
+      </c>
+      <c r="F628" t="n">
+        <v>2062.300048828125</v>
+      </c>
+      <c r="G628" t="n">
+        <v>446.7999877929688</v>
+      </c>
+      <c r="H628" t="n">
+        <v>8507.750061035156</v>
+      </c>
+      <c r="I628" t="n">
+        <v>0.01209844518691423</v>
+      </c>
+      <c r="J628" t="n">
+        <v>222.8942788618846</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>2012.849975585938</v>
+      </c>
+      <c r="D629" t="n">
+        <v>1229.900024414062</v>
+      </c>
+      <c r="E629" t="n">
+        <v>1882.449951171875</v>
+      </c>
+      <c r="F629" t="n">
+        <v>2039</v>
+      </c>
+      <c r="G629" t="n">
+        <v>445.75</v>
+      </c>
+      <c r="H629" t="n">
+        <v>8501.449951171875</v>
+      </c>
+      <c r="I629" t="n">
+        <v>-0.000740514215636784</v>
+      </c>
+      <c r="J629" t="n">
+        <v>222.7292224798032</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D630" t="n">
+        <v>1238.800048828125</v>
+      </c>
+      <c r="E630" t="n">
+        <v>1914.400024414062</v>
+      </c>
+      <c r="F630" t="n">
+        <v>2064.550048828125</v>
+      </c>
+      <c r="G630" t="n">
+        <v>439.25</v>
+      </c>
+      <c r="H630" t="n">
+        <v>8561.500122070312</v>
+      </c>
+      <c r="I630" t="n">
+        <v>0.007063521075032611</v>
+      </c>
+      <c r="J630" t="n">
+        <v>224.302475036815</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>2051.39990234375</v>
+      </c>
+      <c r="D631" t="n">
+        <v>1252.949951171875</v>
+      </c>
+      <c r="E631" t="n">
+        <v>1910.849975585938</v>
+      </c>
+      <c r="F631" t="n">
+        <v>2112.050048828125</v>
+      </c>
+      <c r="G631" t="n">
+        <v>441.5499877929688</v>
+      </c>
+      <c r="H631" t="n">
+        <v>8651.899841308594</v>
+      </c>
+      <c r="I631" t="n">
+        <v>0.01055886444540762</v>
+      </c>
+      <c r="J631" t="n">
+        <v>226.6708544654981</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Luxury_Goods.xlsx
+++ b/NAV/Luxury_Goods.xlsx
@@ -506,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J631"/>
+  <dimension ref="A1:J652"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
       <selection activeCell="G585" sqref="G585"/>
@@ -19223,6 +19223,657 @@
         <v>226.6708544654981</v>
       </c>
     </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>1746.650024414062</v>
+      </c>
+      <c r="D632" t="n">
+        <v>1322.349975585938</v>
+      </c>
+      <c r="E632" t="n">
+        <v>1771.75</v>
+      </c>
+      <c r="F632" t="n">
+        <v>2073.949951171875</v>
+      </c>
+      <c r="G632" t="n">
+        <v>462.7999877929688</v>
+      </c>
+      <c r="H632" t="n">
+        <v>8303.099914550781</v>
+      </c>
+      <c r="I632" t="n">
+        <v>0</v>
+      </c>
+      <c r="J632" t="n">
+        <v>226.6708544654981</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>1695.900024414062</v>
+      </c>
+      <c r="D633" t="n">
+        <v>1307.849975585938</v>
+      </c>
+      <c r="E633" t="n">
+        <v>1788.400024414062</v>
+      </c>
+      <c r="F633" t="n">
+        <v>2194.800048828125</v>
+      </c>
+      <c r="G633" t="n">
+        <v>465</v>
+      </c>
+      <c r="H633" t="n">
+        <v>8381.950073242188</v>
+      </c>
+      <c r="I633" t="n">
+        <v>0.009496472342001468</v>
+      </c>
+      <c r="J633" t="n">
+        <v>228.8234279656675</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>1703.900024414062</v>
+      </c>
+      <c r="D634" t="n">
+        <v>1306.050048828125</v>
+      </c>
+      <c r="E634" t="n">
+        <v>1743.650024414062</v>
+      </c>
+      <c r="F634" t="n">
+        <v>2183.5</v>
+      </c>
+      <c r="G634" t="n">
+        <v>477.0499877929688</v>
+      </c>
+      <c r="H634" t="n">
+        <v>8368.250061035156</v>
+      </c>
+      <c r="I634" t="n">
+        <v>-0.001634465975974491</v>
+      </c>
+      <c r="J634" t="n">
+        <v>228.4494238581518</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>1660.599975585938</v>
+      </c>
+      <c r="D635" t="n">
+        <v>1280.449951171875</v>
+      </c>
+      <c r="E635" t="n">
+        <v>1769.650024414062</v>
+      </c>
+      <c r="F635" t="n">
+        <v>2220.5</v>
+      </c>
+      <c r="G635" t="n">
+        <v>464.8500061035156</v>
+      </c>
+      <c r="H635" t="n">
+        <v>8325.749969482422</v>
+      </c>
+      <c r="I635" t="n">
+        <v>-0.005078731065963999</v>
+      </c>
+      <c r="J635" t="n">
+        <v>227.2891906722018</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>1683.75</v>
+      </c>
+      <c r="D636" t="n">
+        <v>1248.449951171875</v>
+      </c>
+      <c r="E636" t="n">
+        <v>1810.949951171875</v>
+      </c>
+      <c r="F636" t="n">
+        <v>2205.5</v>
+      </c>
+      <c r="G636" t="n">
+        <v>469.6000061035156</v>
+      </c>
+      <c r="H636" t="n">
+        <v>8357.449920654297</v>
+      </c>
+      <c r="I636" t="n">
+        <v>0.003807458942205738</v>
+      </c>
+      <c r="J636" t="n">
+        <v>228.1545849336934</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>1699.5</v>
+      </c>
+      <c r="D637" t="n">
+        <v>1288.900024414062</v>
+      </c>
+      <c r="E637" t="n">
+        <v>1780.25</v>
+      </c>
+      <c r="F637" t="n">
+        <v>2217.949951171875</v>
+      </c>
+      <c r="G637" t="n">
+        <v>466.5499877929688</v>
+      </c>
+      <c r="H637" t="n">
+        <v>8386.249938964844</v>
+      </c>
+      <c r="I637" t="n">
+        <v>0.003446029420932761</v>
+      </c>
+      <c r="J637" t="n">
+        <v>228.9408123458956</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C638" t="n">
+        <v>1694.699951171875</v>
+      </c>
+      <c r="D638" t="n">
+        <v>1272.300048828125</v>
+      </c>
+      <c r="E638" t="n">
+        <v>1783.150024414062</v>
+      </c>
+      <c r="F638" t="n">
+        <v>2236.14990234375</v>
+      </c>
+      <c r="G638" t="n">
+        <v>467.75</v>
+      </c>
+      <c r="H638" t="n">
+        <v>8389.549926757812</v>
+      </c>
+      <c r="I638" t="n">
+        <v>0.0003934998142180441</v>
+      </c>
+      <c r="J638" t="n">
+        <v>229.0309005130207</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C639" t="n">
+        <v>1724.449951171875</v>
+      </c>
+      <c r="D639" t="n">
+        <v>1234.300048828125</v>
+      </c>
+      <c r="E639" t="n">
+        <v>1778.650024414062</v>
+      </c>
+      <c r="F639" t="n">
+        <v>2224.39990234375</v>
+      </c>
+      <c r="G639" t="n">
+        <v>463.3999938964844</v>
+      </c>
+      <c r="H639" t="n">
+        <v>8351.999908447266</v>
+      </c>
+      <c r="I639" t="n">
+        <v>-0.004475808432915339</v>
+      </c>
+      <c r="J639" t="n">
+        <v>228.0058020771063</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C640" t="n">
+        <v>1789.300048828125</v>
+      </c>
+      <c r="D640" t="n">
+        <v>1234.300048828125</v>
+      </c>
+      <c r="E640" t="n">
+        <v>1817.949951171875</v>
+      </c>
+      <c r="F640" t="n">
+        <v>2138.60009765625</v>
+      </c>
+      <c r="G640" t="n">
+        <v>460.7999877929688</v>
+      </c>
+      <c r="H640" t="n">
+        <v>8362.550109863281</v>
+      </c>
+      <c r="I640" t="n">
+        <v>0.001263194627833399</v>
+      </c>
+      <c r="J640" t="n">
+        <v>228.293817781405</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C641" t="n">
+        <v>1799.949951171875</v>
+      </c>
+      <c r="D641" t="n">
+        <v>1249.650024414062</v>
+      </c>
+      <c r="E641" t="n">
+        <v>1830.099975585938</v>
+      </c>
+      <c r="F641" t="n">
+        <v>2140.14990234375</v>
+      </c>
+      <c r="G641" t="n">
+        <v>466.9500122070312</v>
+      </c>
+      <c r="H641" t="n">
+        <v>8420.699890136719</v>
+      </c>
+      <c r="I641" t="n">
+        <v>0.006953594239734628</v>
+      </c>
+      <c r="J641" t="n">
+        <v>229.8812803576968</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C642" t="n">
+        <v>1788.25</v>
+      </c>
+      <c r="D642" t="n">
+        <v>1255</v>
+      </c>
+      <c r="E642" t="n">
+        <v>1828.699951171875</v>
+      </c>
+      <c r="F642" t="n">
+        <v>2119.85009765625</v>
+      </c>
+      <c r="G642" t="n">
+        <v>459.2999877929688</v>
+      </c>
+      <c r="H642" t="n">
+        <v>8369.700012207031</v>
+      </c>
+      <c r="I642" t="n">
+        <v>-0.006056489198650145</v>
+      </c>
+      <c r="J642" t="n">
+        <v>228.4890068662385</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C643" t="n">
+        <v>1816.650024414062</v>
+      </c>
+      <c r="D643" t="n">
+        <v>1257.449951171875</v>
+      </c>
+      <c r="E643" t="n">
+        <v>1852.949951171875</v>
+      </c>
+      <c r="F643" t="n">
+        <v>2111</v>
+      </c>
+      <c r="G643" t="n">
+        <v>459</v>
+      </c>
+      <c r="H643" t="n">
+        <v>8415.049926757812</v>
+      </c>
+      <c r="I643" t="n">
+        <v>0.005418344084571652</v>
+      </c>
+      <c r="J643" t="n">
+        <v>229.7270389249819</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C644" t="n">
+        <v>1888</v>
+      </c>
+      <c r="D644" t="n">
+        <v>1264.349975585938</v>
+      </c>
+      <c r="E644" t="n">
+        <v>1921.550048828125</v>
+      </c>
+      <c r="F644" t="n">
+        <v>2101.35009765625</v>
+      </c>
+      <c r="G644" t="n">
+        <v>451.75</v>
+      </c>
+      <c r="H644" t="n">
+        <v>8530.500122070312</v>
+      </c>
+      <c r="I644" t="n">
+        <v>0.01371949023681921</v>
+      </c>
+      <c r="J644" t="n">
+        <v>232.8787767926465</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C645" t="n">
+        <v>1934.900024414062</v>
+      </c>
+      <c r="D645" t="n">
+        <v>1259.75</v>
+      </c>
+      <c r="E645" t="n">
+        <v>1916</v>
+      </c>
+      <c r="F645" t="n">
+        <v>2047.199951171875</v>
+      </c>
+      <c r="G645" t="n">
+        <v>447.8999938964844</v>
+      </c>
+      <c r="H645" t="n">
+        <v>8501.549957275391</v>
+      </c>
+      <c r="I645" t="n">
+        <v>-0.003393724210849177</v>
+      </c>
+      <c r="J645" t="n">
+        <v>232.0884504496524</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C646" t="n">
+        <v>1891.199951171875</v>
+      </c>
+      <c r="D646" t="n">
+        <v>1257.550048828125</v>
+      </c>
+      <c r="E646" t="n">
+        <v>1904.050048828125</v>
+      </c>
+      <c r="F646" t="n">
+        <v>2034.699951171875</v>
+      </c>
+      <c r="G646" t="n">
+        <v>452.75</v>
+      </c>
+      <c r="H646" t="n">
+        <v>8445.75</v>
+      </c>
+      <c r="I646" t="n">
+        <v>-0.006563504014657771</v>
+      </c>
+      <c r="J646" t="n">
+        <v>230.5651369733704</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C647" t="n">
+        <v>1879.449951171875</v>
+      </c>
+      <c r="D647" t="n">
+        <v>1232.050048828125</v>
+      </c>
+      <c r="E647" t="n">
+        <v>1889.400024414062</v>
+      </c>
+      <c r="F647" t="n">
+        <v>2042.550048828125</v>
+      </c>
+      <c r="G647" t="n">
+        <v>448.8500061035156</v>
+      </c>
+      <c r="H647" t="n">
+        <v>8390.000091552734</v>
+      </c>
+      <c r="I647" t="n">
+        <v>-0.006600942302017657</v>
+      </c>
+      <c r="J647" t="n">
+        <v>229.0431898073524</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C648" t="n">
+        <v>1866.650024414062</v>
+      </c>
+      <c r="D648" t="n">
+        <v>1234.5</v>
+      </c>
+      <c r="E648" t="n">
+        <v>1929.199951171875</v>
+      </c>
+      <c r="F648" t="n">
+        <v>2025.699951171875</v>
+      </c>
+      <c r="G648" t="n">
+        <v>450</v>
+      </c>
+      <c r="H648" t="n">
+        <v>8406.049926757812</v>
+      </c>
+      <c r="I648" t="n">
+        <v>0.00191297199403341</v>
+      </c>
+      <c r="J648" t="n">
+        <v>229.4813430148779</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>1930.099975585938</v>
+      </c>
+      <c r="D649" t="n">
+        <v>1246.550048828125</v>
+      </c>
+      <c r="E649" t="n">
+        <v>1928.400024414062</v>
+      </c>
+      <c r="F649" t="n">
+        <v>2062.300048828125</v>
+      </c>
+      <c r="G649" t="n">
+        <v>446.7999877929688</v>
+      </c>
+      <c r="H649" t="n">
+        <v>8507.750061035156</v>
+      </c>
+      <c r="I649" t="n">
+        <v>0.01209844518691423</v>
+      </c>
+      <c r="J649" t="n">
+        <v>232.2577104647629</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C650" t="n">
+        <v>2012.849975585938</v>
+      </c>
+      <c r="D650" t="n">
+        <v>1229.900024414062</v>
+      </c>
+      <c r="E650" t="n">
+        <v>1882.449951171875</v>
+      </c>
+      <c r="F650" t="n">
+        <v>2039</v>
+      </c>
+      <c r="G650" t="n">
+        <v>445.75</v>
+      </c>
+      <c r="H650" t="n">
+        <v>8501.449951171875</v>
+      </c>
+      <c r="I650" t="n">
+        <v>-0.000740514215636784</v>
+      </c>
+      <c r="J650" t="n">
+        <v>232.0857203284725</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D651" t="n">
+        <v>1238.800048828125</v>
+      </c>
+      <c r="E651" t="n">
+        <v>1914.400024414062</v>
+      </c>
+      <c r="F651" t="n">
+        <v>2064.550048828125</v>
+      </c>
+      <c r="G651" t="n">
+        <v>439.25</v>
+      </c>
+      <c r="H651" t="n">
+        <v>8561.500122070312</v>
+      </c>
+      <c r="I651" t="n">
+        <v>0.007063521075032611</v>
+      </c>
+      <c r="J651" t="n">
+        <v>233.7250627052268</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>2051.39990234375</v>
+      </c>
+      <c r="D652" t="n">
+        <v>1252.949951171875</v>
+      </c>
+      <c r="E652" t="n">
+        <v>1910.849975585938</v>
+      </c>
+      <c r="F652" t="n">
+        <v>2112.050048828125</v>
+      </c>
+      <c r="G652" t="n">
+        <v>441.5499877929688</v>
+      </c>
+      <c r="H652" t="n">
+        <v>8651.899841308594</v>
+      </c>
+      <c r="I652" t="n">
+        <v>0.01055886444540762</v>
+      </c>
+      <c r="J652" t="n">
+        <v>236.1929339598256</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Luxury_Goods.xlsx
+++ b/NAV/Luxury_Goods.xlsx
@@ -506,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J652"/>
+  <dimension ref="A1:J673"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
       <selection activeCell="G585" sqref="G585"/>
@@ -19874,6 +19874,657 @@
         <v>236.1929339598256</v>
       </c>
     </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>1746.650024414062</v>
+      </c>
+      <c r="D653" t="n">
+        <v>1322.349975585938</v>
+      </c>
+      <c r="E653" t="n">
+        <v>1771.75</v>
+      </c>
+      <c r="F653" t="n">
+        <v>2073.949951171875</v>
+      </c>
+      <c r="G653" t="n">
+        <v>462.7999877929688</v>
+      </c>
+      <c r="H653" t="n">
+        <v>8303.099914550781</v>
+      </c>
+      <c r="I653" t="n">
+        <v>0</v>
+      </c>
+      <c r="J653" t="n">
+        <v>236.1929339598256</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>1695.900024414062</v>
+      </c>
+      <c r="D654" t="n">
+        <v>1307.849975585938</v>
+      </c>
+      <c r="E654" t="n">
+        <v>1788.400024414062</v>
+      </c>
+      <c r="F654" t="n">
+        <v>2194.800048828125</v>
+      </c>
+      <c r="G654" t="n">
+        <v>465</v>
+      </c>
+      <c r="H654" t="n">
+        <v>8381.950073242188</v>
+      </c>
+      <c r="I654" t="n">
+        <v>0.009496472342001468</v>
+      </c>
+      <c r="J654" t="n">
+        <v>238.4359336245513</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="C655" t="n">
+        <v>1703.900024414062</v>
+      </c>
+      <c r="D655" t="n">
+        <v>1306.050048828125</v>
+      </c>
+      <c r="E655" t="n">
+        <v>1743.650024414062</v>
+      </c>
+      <c r="F655" t="n">
+        <v>2183.5</v>
+      </c>
+      <c r="G655" t="n">
+        <v>477.0499877929688</v>
+      </c>
+      <c r="H655" t="n">
+        <v>8368.250061035156</v>
+      </c>
+      <c r="I655" t="n">
+        <v>-0.001634465975974491</v>
+      </c>
+      <c r="J655" t="n">
+        <v>238.0462182035922</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C656" t="n">
+        <v>1660.599975585938</v>
+      </c>
+      <c r="D656" t="n">
+        <v>1280.449951171875</v>
+      </c>
+      <c r="E656" t="n">
+        <v>1769.650024414062</v>
+      </c>
+      <c r="F656" t="n">
+        <v>2220.5</v>
+      </c>
+      <c r="G656" t="n">
+        <v>464.8500061035156</v>
+      </c>
+      <c r="H656" t="n">
+        <v>8325.749969482422</v>
+      </c>
+      <c r="I656" t="n">
+        <v>-0.005078731065963999</v>
+      </c>
+      <c r="J656" t="n">
+        <v>236.8372454800664</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C657" t="n">
+        <v>1683.75</v>
+      </c>
+      <c r="D657" t="n">
+        <v>1248.449951171875</v>
+      </c>
+      <c r="E657" t="n">
+        <v>1810.949951171875</v>
+      </c>
+      <c r="F657" t="n">
+        <v>2205.5</v>
+      </c>
+      <c r="G657" t="n">
+        <v>469.6000061035156</v>
+      </c>
+      <c r="H657" t="n">
+        <v>8357.449920654297</v>
+      </c>
+      <c r="I657" t="n">
+        <v>0.003807458942205738</v>
+      </c>
+      <c r="J657" t="n">
+        <v>237.7389935682168</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C658" t="n">
+        <v>1699.5</v>
+      </c>
+      <c r="D658" t="n">
+        <v>1288.900024414062</v>
+      </c>
+      <c r="E658" t="n">
+        <v>1780.25</v>
+      </c>
+      <c r="F658" t="n">
+        <v>2217.949951171875</v>
+      </c>
+      <c r="G658" t="n">
+        <v>466.5499877929688</v>
+      </c>
+      <c r="H658" t="n">
+        <v>8386.249938964844</v>
+      </c>
+      <c r="I658" t="n">
+        <v>0.003446029420932761</v>
+      </c>
+      <c r="J658" t="n">
+        <v>238.5582491345559</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C659" t="n">
+        <v>1694.699951171875</v>
+      </c>
+      <c r="D659" t="n">
+        <v>1272.300048828125</v>
+      </c>
+      <c r="E659" t="n">
+        <v>1783.150024414062</v>
+      </c>
+      <c r="F659" t="n">
+        <v>2236.14990234375</v>
+      </c>
+      <c r="G659" t="n">
+        <v>467.75</v>
+      </c>
+      <c r="H659" t="n">
+        <v>8389.549926757812</v>
+      </c>
+      <c r="I659" t="n">
+        <v>0.0003934998142180441</v>
+      </c>
+      <c r="J659" t="n">
+        <v>238.6521217612705</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C660" t="n">
+        <v>1724.449951171875</v>
+      </c>
+      <c r="D660" t="n">
+        <v>1234.300048828125</v>
+      </c>
+      <c r="E660" t="n">
+        <v>1778.650024414062</v>
+      </c>
+      <c r="F660" t="n">
+        <v>2224.39990234375</v>
+      </c>
+      <c r="G660" t="n">
+        <v>463.3999938964844</v>
+      </c>
+      <c r="H660" t="n">
+        <v>8351.999908447266</v>
+      </c>
+      <c r="I660" t="n">
+        <v>-0.004475808432915339</v>
+      </c>
+      <c r="J660" t="n">
+        <v>237.5839605821583</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C661" t="n">
+        <v>1789.300048828125</v>
+      </c>
+      <c r="D661" t="n">
+        <v>1234.300048828125</v>
+      </c>
+      <c r="E661" t="n">
+        <v>1817.949951171875</v>
+      </c>
+      <c r="F661" t="n">
+        <v>2138.60009765625</v>
+      </c>
+      <c r="G661" t="n">
+        <v>460.7999877929688</v>
+      </c>
+      <c r="H661" t="n">
+        <v>8362.550109863281</v>
+      </c>
+      <c r="I661" t="n">
+        <v>0.001263194627833399</v>
+      </c>
+      <c r="J661" t="n">
+        <v>237.8840753648251</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C662" t="n">
+        <v>1799.949951171875</v>
+      </c>
+      <c r="D662" t="n">
+        <v>1249.650024414062</v>
+      </c>
+      <c r="E662" t="n">
+        <v>1830.099975585938</v>
+      </c>
+      <c r="F662" t="n">
+        <v>2140.14990234375</v>
+      </c>
+      <c r="G662" t="n">
+        <v>466.9500122070312</v>
+      </c>
+      <c r="H662" t="n">
+        <v>8420.699890136719</v>
+      </c>
+      <c r="I662" t="n">
+        <v>0.006953594239734628</v>
+      </c>
+      <c r="J662" t="n">
+        <v>239.5382247010065</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C663" t="n">
+        <v>1788.25</v>
+      </c>
+      <c r="D663" t="n">
+        <v>1255</v>
+      </c>
+      <c r="E663" t="n">
+        <v>1828.699951171875</v>
+      </c>
+      <c r="F663" t="n">
+        <v>2119.85009765625</v>
+      </c>
+      <c r="G663" t="n">
+        <v>459.2999877929688</v>
+      </c>
+      <c r="H663" t="n">
+        <v>8369.700012207031</v>
+      </c>
+      <c r="I663" t="n">
+        <v>-0.006056489198650145</v>
+      </c>
+      <c r="J663" t="n">
+        <v>238.087464030441</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C664" t="n">
+        <v>1816.650024414062</v>
+      </c>
+      <c r="D664" t="n">
+        <v>1257.449951171875</v>
+      </c>
+      <c r="E664" t="n">
+        <v>1852.949951171875</v>
+      </c>
+      <c r="F664" t="n">
+        <v>2111</v>
+      </c>
+      <c r="G664" t="n">
+        <v>459</v>
+      </c>
+      <c r="H664" t="n">
+        <v>8415.049926757812</v>
+      </c>
+      <c r="I664" t="n">
+        <v>0.005418344084571652</v>
+      </c>
+      <c r="J664" t="n">
+        <v>239.377503832781</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C665" t="n">
+        <v>1888</v>
+      </c>
+      <c r="D665" t="n">
+        <v>1264.349975585938</v>
+      </c>
+      <c r="E665" t="n">
+        <v>1921.550048828125</v>
+      </c>
+      <c r="F665" t="n">
+        <v>2101.35009765625</v>
+      </c>
+      <c r="G665" t="n">
+        <v>451.75</v>
+      </c>
+      <c r="H665" t="n">
+        <v>8530.500122070312</v>
+      </c>
+      <c r="I665" t="n">
+        <v>0.01371949023681921</v>
+      </c>
+      <c r="J665" t="n">
+        <v>242.661641159529</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C666" t="n">
+        <v>1934.900024414062</v>
+      </c>
+      <c r="D666" t="n">
+        <v>1259.75</v>
+      </c>
+      <c r="E666" t="n">
+        <v>1916</v>
+      </c>
+      <c r="F666" t="n">
+        <v>2047.199951171875</v>
+      </c>
+      <c r="G666" t="n">
+        <v>447.8999938964844</v>
+      </c>
+      <c r="H666" t="n">
+        <v>8501.549957275391</v>
+      </c>
+      <c r="I666" t="n">
+        <v>-0.003393724210849177</v>
+      </c>
+      <c r="J666" t="n">
+        <v>241.8381144728815</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C667" t="n">
+        <v>1891.199951171875</v>
+      </c>
+      <c r="D667" t="n">
+        <v>1257.550048828125</v>
+      </c>
+      <c r="E667" t="n">
+        <v>1904.050048828125</v>
+      </c>
+      <c r="F667" t="n">
+        <v>2034.699951171875</v>
+      </c>
+      <c r="G667" t="n">
+        <v>452.75</v>
+      </c>
+      <c r="H667" t="n">
+        <v>8445.75</v>
+      </c>
+      <c r="I667" t="n">
+        <v>-0.006563504014657771</v>
+      </c>
+      <c r="J667" t="n">
+        <v>240.2508090376415</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C668" t="n">
+        <v>1879.449951171875</v>
+      </c>
+      <c r="D668" t="n">
+        <v>1232.050048828125</v>
+      </c>
+      <c r="E668" t="n">
+        <v>1889.400024414062</v>
+      </c>
+      <c r="F668" t="n">
+        <v>2042.550048828125</v>
+      </c>
+      <c r="G668" t="n">
+        <v>448.8500061035156</v>
+      </c>
+      <c r="H668" t="n">
+        <v>8390.000091552734</v>
+      </c>
+      <c r="I668" t="n">
+        <v>-0.006600942302017657</v>
+      </c>
+      <c r="J668" t="n">
+        <v>238.664927309171</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C669" t="n">
+        <v>1866.650024414062</v>
+      </c>
+      <c r="D669" t="n">
+        <v>1234.5</v>
+      </c>
+      <c r="E669" t="n">
+        <v>1929.199951171875</v>
+      </c>
+      <c r="F669" t="n">
+        <v>2025.699951171875</v>
+      </c>
+      <c r="G669" t="n">
+        <v>450</v>
+      </c>
+      <c r="H669" t="n">
+        <v>8406.049926757812</v>
+      </c>
+      <c r="I669" t="n">
+        <v>0.00191297199403341</v>
+      </c>
+      <c r="J669" t="n">
+        <v>239.1214866310714</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C670" t="n">
+        <v>1930.099975585938</v>
+      </c>
+      <c r="D670" t="n">
+        <v>1246.550048828125</v>
+      </c>
+      <c r="E670" t="n">
+        <v>1928.400024414062</v>
+      </c>
+      <c r="F670" t="n">
+        <v>2062.300048828125</v>
+      </c>
+      <c r="G670" t="n">
+        <v>446.7999877929688</v>
+      </c>
+      <c r="H670" t="n">
+        <v>8507.750061035156</v>
+      </c>
+      <c r="I670" t="n">
+        <v>0.01209844518691423</v>
+      </c>
+      <c r="J670" t="n">
+        <v>242.0144848300909</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C671" t="n">
+        <v>2012.849975585938</v>
+      </c>
+      <c r="D671" t="n">
+        <v>1229.900024414062</v>
+      </c>
+      <c r="E671" t="n">
+        <v>1882.449951171875</v>
+      </c>
+      <c r="F671" t="n">
+        <v>2039</v>
+      </c>
+      <c r="G671" t="n">
+        <v>445.75</v>
+      </c>
+      <c r="H671" t="n">
+        <v>8501.449951171875</v>
+      </c>
+      <c r="I671" t="n">
+        <v>-0.000740514215636784</v>
+      </c>
+      <c r="J671" t="n">
+        <v>241.8352696636842</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C672" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D672" t="n">
+        <v>1238.800048828125</v>
+      </c>
+      <c r="E672" t="n">
+        <v>1914.400024414062</v>
+      </c>
+      <c r="F672" t="n">
+        <v>2064.550048828125</v>
+      </c>
+      <c r="G672" t="n">
+        <v>439.25</v>
+      </c>
+      <c r="H672" t="n">
+        <v>8561.500122070312</v>
+      </c>
+      <c r="I672" t="n">
+        <v>0.007063521075032611</v>
+      </c>
+      <c r="J672" t="n">
+        <v>243.5434781876398</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C673" t="n">
+        <v>2051.39990234375</v>
+      </c>
+      <c r="D673" t="n">
+        <v>1252.949951171875</v>
+      </c>
+      <c r="E673" t="n">
+        <v>1910.849975585938</v>
+      </c>
+      <c r="F673" t="n">
+        <v>2112.050048828125</v>
+      </c>
+      <c r="G673" t="n">
+        <v>441.5499877929688</v>
+      </c>
+      <c r="H673" t="n">
+        <v>8651.899841308594</v>
+      </c>
+      <c r="I673" t="n">
+        <v>0.01055886444540762</v>
+      </c>
+      <c r="J673" t="n">
+        <v>246.1150207603862</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Luxury_Goods.xlsx
+++ b/NAV/Luxury_Goods.xlsx
@@ -506,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J610"/>
+  <dimension ref="A1:J630"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
       <selection activeCell="G585" sqref="G585"/>
@@ -18572,6 +18572,626 @@
         <v>218.9443043986576</v>
       </c>
     </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C611" t="n">
+        <v>1660.599975585938</v>
+      </c>
+      <c r="D611" t="n">
+        <v>1280.449951171875</v>
+      </c>
+      <c r="E611" t="n">
+        <v>1769.650024414062</v>
+      </c>
+      <c r="F611" t="n">
+        <v>2220.5</v>
+      </c>
+      <c r="G611" t="n">
+        <v>464.8500061035156</v>
+      </c>
+      <c r="H611" t="n">
+        <v>8325.749969482422</v>
+      </c>
+      <c r="I611" t="n">
+        <v>0</v>
+      </c>
+      <c r="J611" t="n">
+        <v>218.9443043986576</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C612" t="n">
+        <v>1683.75</v>
+      </c>
+      <c r="D612" t="n">
+        <v>1248.449951171875</v>
+      </c>
+      <c r="E612" t="n">
+        <v>1810.949951171875</v>
+      </c>
+      <c r="F612" t="n">
+        <v>2205.5</v>
+      </c>
+      <c r="G612" t="n">
+        <v>469.6000061035156</v>
+      </c>
+      <c r="H612" t="n">
+        <v>8357.449920654297</v>
+      </c>
+      <c r="I612" t="n">
+        <v>0.003807458942205738</v>
+      </c>
+      <c r="J612" t="n">
+        <v>219.7779258482853</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C613" t="n">
+        <v>1699.5</v>
+      </c>
+      <c r="D613" t="n">
+        <v>1288.900024414062</v>
+      </c>
+      <c r="E613" t="n">
+        <v>1780.25</v>
+      </c>
+      <c r="F613" t="n">
+        <v>2217.949951171875</v>
+      </c>
+      <c r="G613" t="n">
+        <v>466.5499877929688</v>
+      </c>
+      <c r="H613" t="n">
+        <v>8386.249938964844</v>
+      </c>
+      <c r="I613" t="n">
+        <v>0.003446029420932761</v>
+      </c>
+      <c r="J613" t="n">
+        <v>220.5352870468301</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C614" t="n">
+        <v>1694.699951171875</v>
+      </c>
+      <c r="D614" t="n">
+        <v>1272.300048828125</v>
+      </c>
+      <c r="E614" t="n">
+        <v>1783.150024414062</v>
+      </c>
+      <c r="F614" t="n">
+        <v>2236.14990234375</v>
+      </c>
+      <c r="G614" t="n">
+        <v>467.75</v>
+      </c>
+      <c r="H614" t="n">
+        <v>8389.549926757812</v>
+      </c>
+      <c r="I614" t="n">
+        <v>0.0003934998142180441</v>
+      </c>
+      <c r="J614" t="n">
+        <v>220.6220676413116</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C615" t="n">
+        <v>1724.449951171875</v>
+      </c>
+      <c r="D615" t="n">
+        <v>1234.300048828125</v>
+      </c>
+      <c r="E615" t="n">
+        <v>1778.650024414062</v>
+      </c>
+      <c r="F615" t="n">
+        <v>2224.39990234375</v>
+      </c>
+      <c r="G615" t="n">
+        <v>463.3999938964844</v>
+      </c>
+      <c r="H615" t="n">
+        <v>8351.999908447266</v>
+      </c>
+      <c r="I615" t="n">
+        <v>-0.004475808432915339</v>
+      </c>
+      <c r="J615" t="n">
+        <v>219.6346055304754</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C616" t="n">
+        <v>1789.300048828125</v>
+      </c>
+      <c r="D616" t="n">
+        <v>1234.300048828125</v>
+      </c>
+      <c r="E616" t="n">
+        <v>1817.949951171875</v>
+      </c>
+      <c r="F616" t="n">
+        <v>2138.60009765625</v>
+      </c>
+      <c r="G616" t="n">
+        <v>460.7999877929688</v>
+      </c>
+      <c r="H616" t="n">
+        <v>8362.550109863281</v>
+      </c>
+      <c r="I616" t="n">
+        <v>0.001263194627833399</v>
+      </c>
+      <c r="J616" t="n">
+        <v>219.9120467842678</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>1799.949951171875</v>
+      </c>
+      <c r="D617" t="n">
+        <v>1249.650024414062</v>
+      </c>
+      <c r="E617" t="n">
+        <v>1830.099975585938</v>
+      </c>
+      <c r="F617" t="n">
+        <v>2140.14990234375</v>
+      </c>
+      <c r="G617" t="n">
+        <v>466.9500122070312</v>
+      </c>
+      <c r="H617" t="n">
+        <v>8420.699890136719</v>
+      </c>
+      <c r="I617" t="n">
+        <v>0.006953594239734628</v>
+      </c>
+      <c r="J617" t="n">
+        <v>221.4412259260351</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>1788.25</v>
+      </c>
+      <c r="D618" t="n">
+        <v>1255</v>
+      </c>
+      <c r="E618" t="n">
+        <v>1828.699951171875</v>
+      </c>
+      <c r="F618" t="n">
+        <v>2119.85009765625</v>
+      </c>
+      <c r="G618" t="n">
+        <v>459.2999877929688</v>
+      </c>
+      <c r="H618" t="n">
+        <v>8369.700012207031</v>
+      </c>
+      <c r="I618" t="n">
+        <v>-0.006056489198650145</v>
+      </c>
+      <c r="J618" t="n">
+        <v>220.1000695330782</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>1816.650024414062</v>
+      </c>
+      <c r="D619" t="n">
+        <v>1257.449951171875</v>
+      </c>
+      <c r="E619" t="n">
+        <v>1852.949951171875</v>
+      </c>
+      <c r="F619" t="n">
+        <v>2111</v>
+      </c>
+      <c r="G619" t="n">
+        <v>459</v>
+      </c>
+      <c r="H619" t="n">
+        <v>8415.049926757812</v>
+      </c>
+      <c r="I619" t="n">
+        <v>0.005418344084571652</v>
+      </c>
+      <c r="J619" t="n">
+        <v>221.2926474428466</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>1888</v>
+      </c>
+      <c r="D620" t="n">
+        <v>1264.349975585938</v>
+      </c>
+      <c r="E620" t="n">
+        <v>1921.550048828125</v>
+      </c>
+      <c r="F620" t="n">
+        <v>2101.35009765625</v>
+      </c>
+      <c r="G620" t="n">
+        <v>451.75</v>
+      </c>
+      <c r="H620" t="n">
+        <v>8530.500122070312</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0.01371949023681921</v>
+      </c>
+      <c r="J620" t="n">
+        <v>224.3286697589186</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>1934.900024414062</v>
+      </c>
+      <c r="D621" t="n">
+        <v>1259.75</v>
+      </c>
+      <c r="E621" t="n">
+        <v>1916</v>
+      </c>
+      <c r="F621" t="n">
+        <v>2047.199951171875</v>
+      </c>
+      <c r="G621" t="n">
+        <v>447.8999938964844</v>
+      </c>
+      <c r="H621" t="n">
+        <v>8501.549957275391</v>
+      </c>
+      <c r="I621" t="n">
+        <v>-0.003393724210849177</v>
+      </c>
+      <c r="J621" t="n">
+        <v>223.5673601211702</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>1891.199951171875</v>
+      </c>
+      <c r="D622" t="n">
+        <v>1257.550048828125</v>
+      </c>
+      <c r="E622" t="n">
+        <v>1904.050048828125</v>
+      </c>
+      <c r="F622" t="n">
+        <v>2034.699951171875</v>
+      </c>
+      <c r="G622" t="n">
+        <v>452.75</v>
+      </c>
+      <c r="H622" t="n">
+        <v>8445.75</v>
+      </c>
+      <c r="I622" t="n">
+        <v>-0.006563504014657771</v>
+      </c>
+      <c r="J622" t="n">
+        <v>222.0999748554684</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>1879.449951171875</v>
+      </c>
+      <c r="D623" t="n">
+        <v>1232.050048828125</v>
+      </c>
+      <c r="E623" t="n">
+        <v>1889.400024414062</v>
+      </c>
+      <c r="F623" t="n">
+        <v>2042.550048828125</v>
+      </c>
+      <c r="G623" t="n">
+        <v>448.8500061035156</v>
+      </c>
+      <c r="H623" t="n">
+        <v>8390.000091552734</v>
+      </c>
+      <c r="I623" t="n">
+        <v>-0.006600942302017657</v>
+      </c>
+      <c r="J623" t="n">
+        <v>220.6339057361679</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>1866.650024414062</v>
+      </c>
+      <c r="D624" t="n">
+        <v>1234.5</v>
+      </c>
+      <c r="E624" t="n">
+        <v>1929.199951171875</v>
+      </c>
+      <c r="F624" t="n">
+        <v>2025.699951171875</v>
+      </c>
+      <c r="G624" t="n">
+        <v>450</v>
+      </c>
+      <c r="H624" t="n">
+        <v>8406.049926757812</v>
+      </c>
+      <c r="I624" t="n">
+        <v>0.00191297199403341</v>
+      </c>
+      <c r="J624" t="n">
+        <v>221.0559722187754</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>1930.099975585938</v>
+      </c>
+      <c r="D625" t="n">
+        <v>1246.550048828125</v>
+      </c>
+      <c r="E625" t="n">
+        <v>1928.400024414062</v>
+      </c>
+      <c r="F625" t="n">
+        <v>2062.300048828125</v>
+      </c>
+      <c r="G625" t="n">
+        <v>446.7999877929688</v>
+      </c>
+      <c r="H625" t="n">
+        <v>8507.750061035156</v>
+      </c>
+      <c r="I625" t="n">
+        <v>0.01209844518691423</v>
+      </c>
+      <c r="J625" t="n">
+        <v>223.7304057819043</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>2012.849975585938</v>
+      </c>
+      <c r="D626" t="n">
+        <v>1229.900024414062</v>
+      </c>
+      <c r="E626" t="n">
+        <v>1882.449951171875</v>
+      </c>
+      <c r="F626" t="n">
+        <v>2039</v>
+      </c>
+      <c r="G626" t="n">
+        <v>445.75</v>
+      </c>
+      <c r="H626" t="n">
+        <v>8501.449951171875</v>
+      </c>
+      <c r="I626" t="n">
+        <v>-0.000740514215636784</v>
+      </c>
+      <c r="J626" t="n">
+        <v>223.5647302359526</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D627" t="n">
+        <v>1238.800048828125</v>
+      </c>
+      <c r="E627" t="n">
+        <v>1914.400024414062</v>
+      </c>
+      <c r="F627" t="n">
+        <v>2064.550048828125</v>
+      </c>
+      <c r="G627" t="n">
+        <v>439.25</v>
+      </c>
+      <c r="H627" t="n">
+        <v>8561.500122070312</v>
+      </c>
+      <c r="I627" t="n">
+        <v>0.007063521075032611</v>
+      </c>
+      <c r="J627" t="n">
+        <v>225.1438844196082</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>2051.39990234375</v>
+      </c>
+      <c r="D628" t="n">
+        <v>1252.949951171875</v>
+      </c>
+      <c r="E628" t="n">
+        <v>1910.849975585938</v>
+      </c>
+      <c r="F628" t="n">
+        <v>2112.050048828125</v>
+      </c>
+      <c r="G628" t="n">
+        <v>441.5499877929688</v>
+      </c>
+      <c r="H628" t="n">
+        <v>8651.899841308594</v>
+      </c>
+      <c r="I628" t="n">
+        <v>0.01055886444540762</v>
+      </c>
+      <c r="J628" t="n">
+        <v>227.5211481759074</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>2134.800048828125</v>
+      </c>
+      <c r="D629" t="n">
+        <v>1277.199951171875</v>
+      </c>
+      <c r="E629" t="n">
+        <v>1857.550048828125</v>
+      </c>
+      <c r="F629" t="n">
+        <v>2155.60009765625</v>
+      </c>
+      <c r="G629" t="n">
+        <v>419.25</v>
+      </c>
+      <c r="H629" t="n">
+        <v>8682.900146484375</v>
+      </c>
+      <c r="I629" t="n">
+        <v>0.003583063343818423</v>
+      </c>
+      <c r="J629" t="n">
+        <v>228.33637086188</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>2119.5</v>
+      </c>
+      <c r="D630" t="n">
+        <v>1275.75</v>
+      </c>
+      <c r="E630" t="n">
+        <v>1866.699951171875</v>
+      </c>
+      <c r="F630" t="n">
+        <v>2201.449951171875</v>
+      </c>
+      <c r="G630" t="n">
+        <v>422.7999877929688</v>
+      </c>
+      <c r="H630" t="n">
+        <v>8731.799865722656</v>
+      </c>
+      <c r="I630" t="n">
+        <v>0.005631726544509473</v>
+      </c>
+      <c r="J630" t="n">
+        <v>229.6222988627398</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Luxury_Goods.xlsx
+++ b/NAV/Luxury_Goods.xlsx
@@ -506,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J630"/>
+  <dimension ref="A1:J650"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
       <selection activeCell="G585" sqref="G585"/>
@@ -19192,6 +19192,626 @@
         <v>229.6222988627398</v>
       </c>
     </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>1660.599975585938</v>
+      </c>
+      <c r="D631" t="n">
+        <v>1280.449951171875</v>
+      </c>
+      <c r="E631" t="n">
+        <v>1769.650024414062</v>
+      </c>
+      <c r="F631" t="n">
+        <v>2220.5</v>
+      </c>
+      <c r="G631" t="n">
+        <v>464.8500061035156</v>
+      </c>
+      <c r="H631" t="n">
+        <v>8325.749969482422</v>
+      </c>
+      <c r="I631" t="n">
+        <v>0</v>
+      </c>
+      <c r="J631" t="n">
+        <v>229.6222988627398</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>1683.75</v>
+      </c>
+      <c r="D632" t="n">
+        <v>1248.449951171875</v>
+      </c>
+      <c r="E632" t="n">
+        <v>1810.949951171875</v>
+      </c>
+      <c r="F632" t="n">
+        <v>2205.5</v>
+      </c>
+      <c r="G632" t="n">
+        <v>469.6000061035156</v>
+      </c>
+      <c r="H632" t="n">
+        <v>8357.449920654297</v>
+      </c>
+      <c r="I632" t="n">
+        <v>0.003807458942205738</v>
+      </c>
+      <c r="J632" t="n">
+        <v>230.4965763378746</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>1699.5</v>
+      </c>
+      <c r="D633" t="n">
+        <v>1288.900024414062</v>
+      </c>
+      <c r="E633" t="n">
+        <v>1780.25</v>
+      </c>
+      <c r="F633" t="n">
+        <v>2217.949951171875</v>
+      </c>
+      <c r="G633" t="n">
+        <v>466.5499877929688</v>
+      </c>
+      <c r="H633" t="n">
+        <v>8386.249938964844</v>
+      </c>
+      <c r="I633" t="n">
+        <v>0.003446029420932761</v>
+      </c>
+      <c r="J633" t="n">
+        <v>231.2908743213592</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>1694.699951171875</v>
+      </c>
+      <c r="D634" t="n">
+        <v>1272.300048828125</v>
+      </c>
+      <c r="E634" t="n">
+        <v>1783.150024414062</v>
+      </c>
+      <c r="F634" t="n">
+        <v>2236.14990234375</v>
+      </c>
+      <c r="G634" t="n">
+        <v>467.75</v>
+      </c>
+      <c r="H634" t="n">
+        <v>8389.549926757812</v>
+      </c>
+      <c r="I634" t="n">
+        <v>0.0003934998142180441</v>
+      </c>
+      <c r="J634" t="n">
+        <v>231.381887237435</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>1724.449951171875</v>
+      </c>
+      <c r="D635" t="n">
+        <v>1234.300048828125</v>
+      </c>
+      <c r="E635" t="n">
+        <v>1778.650024414062</v>
+      </c>
+      <c r="F635" t="n">
+        <v>2224.39990234375</v>
+      </c>
+      <c r="G635" t="n">
+        <v>463.3999938964844</v>
+      </c>
+      <c r="H635" t="n">
+        <v>8351.999908447266</v>
+      </c>
+      <c r="I635" t="n">
+        <v>-0.004475808432915339</v>
+      </c>
+      <c r="J635" t="n">
+        <v>230.3462662353138</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>1789.300048828125</v>
+      </c>
+      <c r="D636" t="n">
+        <v>1234.300048828125</v>
+      </c>
+      <c r="E636" t="n">
+        <v>1817.949951171875</v>
+      </c>
+      <c r="F636" t="n">
+        <v>2138.60009765625</v>
+      </c>
+      <c r="G636" t="n">
+        <v>460.7999877929688</v>
+      </c>
+      <c r="H636" t="n">
+        <v>8362.550109863281</v>
+      </c>
+      <c r="I636" t="n">
+        <v>0.001263194627833399</v>
+      </c>
+      <c r="J636" t="n">
+        <v>230.6372384013637</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>1799.949951171875</v>
+      </c>
+      <c r="D637" t="n">
+        <v>1249.650024414062</v>
+      </c>
+      <c r="E637" t="n">
+        <v>1830.099975585938</v>
+      </c>
+      <c r="F637" t="n">
+        <v>2140.14990234375</v>
+      </c>
+      <c r="G637" t="n">
+        <v>466.9500122070312</v>
+      </c>
+      <c r="H637" t="n">
+        <v>8420.699890136719</v>
+      </c>
+      <c r="I637" t="n">
+        <v>0.006953594239734628</v>
+      </c>
+      <c r="J637" t="n">
+        <v>232.2409961737797</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C638" t="n">
+        <v>1788.25</v>
+      </c>
+      <c r="D638" t="n">
+        <v>1255</v>
+      </c>
+      <c r="E638" t="n">
+        <v>1828.699951171875</v>
+      </c>
+      <c r="F638" t="n">
+        <v>2119.85009765625</v>
+      </c>
+      <c r="G638" t="n">
+        <v>459.2999877929688</v>
+      </c>
+      <c r="H638" t="n">
+        <v>8369.700012207031</v>
+      </c>
+      <c r="I638" t="n">
+        <v>-0.006056489198650145</v>
+      </c>
+      <c r="J638" t="n">
+        <v>230.8344310889695</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C639" t="n">
+        <v>1816.650024414062</v>
+      </c>
+      <c r="D639" t="n">
+        <v>1257.449951171875</v>
+      </c>
+      <c r="E639" t="n">
+        <v>1852.949951171875</v>
+      </c>
+      <c r="F639" t="n">
+        <v>2111</v>
+      </c>
+      <c r="G639" t="n">
+        <v>459</v>
+      </c>
+      <c r="H639" t="n">
+        <v>8415.049926757812</v>
+      </c>
+      <c r="I639" t="n">
+        <v>0.005418344084571652</v>
+      </c>
+      <c r="J639" t="n">
+        <v>232.0851714631759</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C640" t="n">
+        <v>1888</v>
+      </c>
+      <c r="D640" t="n">
+        <v>1264.349975585938</v>
+      </c>
+      <c r="E640" t="n">
+        <v>1921.550048828125</v>
+      </c>
+      <c r="F640" t="n">
+        <v>2101.35009765625</v>
+      </c>
+      <c r="G640" t="n">
+        <v>451.75</v>
+      </c>
+      <c r="H640" t="n">
+        <v>8530.500122070312</v>
+      </c>
+      <c r="I640" t="n">
+        <v>0.01371949023681921</v>
+      </c>
+      <c r="J640" t="n">
+        <v>235.2692617071754</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C641" t="n">
+        <v>1934.900024414062</v>
+      </c>
+      <c r="D641" t="n">
+        <v>1259.75</v>
+      </c>
+      <c r="E641" t="n">
+        <v>1916</v>
+      </c>
+      <c r="F641" t="n">
+        <v>2047.199951171875</v>
+      </c>
+      <c r="G641" t="n">
+        <v>447.8999938964844</v>
+      </c>
+      <c r="H641" t="n">
+        <v>8501.549957275391</v>
+      </c>
+      <c r="I641" t="n">
+        <v>-0.003393724210849177</v>
+      </c>
+      <c r="J641" t="n">
+        <v>234.4708227176512</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C642" t="n">
+        <v>1891.199951171875</v>
+      </c>
+      <c r="D642" t="n">
+        <v>1257.550048828125</v>
+      </c>
+      <c r="E642" t="n">
+        <v>1904.050048828125</v>
+      </c>
+      <c r="F642" t="n">
+        <v>2034.699951171875</v>
+      </c>
+      <c r="G642" t="n">
+        <v>452.75</v>
+      </c>
+      <c r="H642" t="n">
+        <v>8445.75</v>
+      </c>
+      <c r="I642" t="n">
+        <v>-0.006563504014657771</v>
+      </c>
+      <c r="J642" t="n">
+        <v>232.9318725314237</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C643" t="n">
+        <v>1879.449951171875</v>
+      </c>
+      <c r="D643" t="n">
+        <v>1232.050048828125</v>
+      </c>
+      <c r="E643" t="n">
+        <v>1889.400024414062</v>
+      </c>
+      <c r="F643" t="n">
+        <v>2042.550048828125</v>
+      </c>
+      <c r="G643" t="n">
+        <v>448.8500061035156</v>
+      </c>
+      <c r="H643" t="n">
+        <v>8390.000091552734</v>
+      </c>
+      <c r="I643" t="n">
+        <v>-0.006600942302017657</v>
+      </c>
+      <c r="J643" t="n">
+        <v>231.3943026805429</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C644" t="n">
+        <v>1866.650024414062</v>
+      </c>
+      <c r="D644" t="n">
+        <v>1234.5</v>
+      </c>
+      <c r="E644" t="n">
+        <v>1929.199951171875</v>
+      </c>
+      <c r="F644" t="n">
+        <v>2025.699951171875</v>
+      </c>
+      <c r="G644" t="n">
+        <v>450</v>
+      </c>
+      <c r="H644" t="n">
+        <v>8406.049926757812</v>
+      </c>
+      <c r="I644" t="n">
+        <v>0.00191297199403341</v>
+      </c>
+      <c r="J644" t="n">
+        <v>231.8369535011497</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C645" t="n">
+        <v>1930.099975585938</v>
+      </c>
+      <c r="D645" t="n">
+        <v>1246.550048828125</v>
+      </c>
+      <c r="E645" t="n">
+        <v>1928.400024414062</v>
+      </c>
+      <c r="F645" t="n">
+        <v>2062.300048828125</v>
+      </c>
+      <c r="G645" t="n">
+        <v>446.7999877929688</v>
+      </c>
+      <c r="H645" t="n">
+        <v>8507.750061035156</v>
+      </c>
+      <c r="I645" t="n">
+        <v>0.01209844518691423</v>
+      </c>
+      <c r="J645" t="n">
+        <v>234.6418201753845</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C646" t="n">
+        <v>2012.849975585938</v>
+      </c>
+      <c r="D646" t="n">
+        <v>1229.900024414062</v>
+      </c>
+      <c r="E646" t="n">
+        <v>1882.449951171875</v>
+      </c>
+      <c r="F646" t="n">
+        <v>2039</v>
+      </c>
+      <c r="G646" t="n">
+        <v>445.75</v>
+      </c>
+      <c r="H646" t="n">
+        <v>8501.449951171875</v>
+      </c>
+      <c r="I646" t="n">
+        <v>-0.000740514215636784</v>
+      </c>
+      <c r="J646" t="n">
+        <v>234.4680645719617</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C647" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D647" t="n">
+        <v>1238.800048828125</v>
+      </c>
+      <c r="E647" t="n">
+        <v>1914.400024414062</v>
+      </c>
+      <c r="F647" t="n">
+        <v>2064.550048828125</v>
+      </c>
+      <c r="G647" t="n">
+        <v>439.25</v>
+      </c>
+      <c r="H647" t="n">
+        <v>8561.500122070312</v>
+      </c>
+      <c r="I647" t="n">
+        <v>0.007063521075032611</v>
+      </c>
+      <c r="J647" t="n">
+        <v>236.1242346874879</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C648" t="n">
+        <v>2051.39990234375</v>
+      </c>
+      <c r="D648" t="n">
+        <v>1252.949951171875</v>
+      </c>
+      <c r="E648" t="n">
+        <v>1910.849975585938</v>
+      </c>
+      <c r="F648" t="n">
+        <v>2112.050048828125</v>
+      </c>
+      <c r="G648" t="n">
+        <v>441.5499877929688</v>
+      </c>
+      <c r="H648" t="n">
+        <v>8651.899841308594</v>
+      </c>
+      <c r="I648" t="n">
+        <v>0.01055886444540762</v>
+      </c>
+      <c r="J648" t="n">
+        <v>238.6174384738287</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>2134.800048828125</v>
+      </c>
+      <c r="D649" t="n">
+        <v>1277.199951171875</v>
+      </c>
+      <c r="E649" t="n">
+        <v>1857.550048828125</v>
+      </c>
+      <c r="F649" t="n">
+        <v>2155.60009765625</v>
+      </c>
+      <c r="G649" t="n">
+        <v>419.25</v>
+      </c>
+      <c r="H649" t="n">
+        <v>8682.900146484375</v>
+      </c>
+      <c r="I649" t="n">
+        <v>0.003583063343818423</v>
+      </c>
+      <c r="J649" t="n">
+        <v>239.4724198708201</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C650" t="n">
+        <v>2119.5</v>
+      </c>
+      <c r="D650" t="n">
+        <v>1275.75</v>
+      </c>
+      <c r="E650" t="n">
+        <v>1866.699951171875</v>
+      </c>
+      <c r="F650" t="n">
+        <v>2201.449951171875</v>
+      </c>
+      <c r="G650" t="n">
+        <v>422.7999877929688</v>
+      </c>
+      <c r="H650" t="n">
+        <v>8731.799865722656</v>
+      </c>
+      <c r="I650" t="n">
+        <v>0.005631726544509473</v>
+      </c>
+      <c r="J650" t="n">
+        <v>240.8210630544845</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Luxury_Goods.xlsx
+++ b/NAV/Luxury_Goods.xlsx
@@ -506,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J650"/>
+  <dimension ref="A1:J670"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
       <selection activeCell="G585" sqref="G585"/>
@@ -19812,6 +19812,626 @@
         <v>240.8210630544845</v>
       </c>
     </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>1660.599975585938</v>
+      </c>
+      <c r="D651" t="n">
+        <v>1280.449951171875</v>
+      </c>
+      <c r="E651" t="n">
+        <v>1769.650024414062</v>
+      </c>
+      <c r="F651" t="n">
+        <v>2220.5</v>
+      </c>
+      <c r="G651" t="n">
+        <v>464.8500061035156</v>
+      </c>
+      <c r="H651" t="n">
+        <v>8325.749969482422</v>
+      </c>
+      <c r="I651" t="n">
+        <v>0</v>
+      </c>
+      <c r="J651" t="n">
+        <v>240.8210630544845</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>1683.75</v>
+      </c>
+      <c r="D652" t="n">
+        <v>1248.449951171875</v>
+      </c>
+      <c r="E652" t="n">
+        <v>1810.949951171875</v>
+      </c>
+      <c r="F652" t="n">
+        <v>2205.5</v>
+      </c>
+      <c r="G652" t="n">
+        <v>469.6000061035156</v>
+      </c>
+      <c r="H652" t="n">
+        <v>8357.449920654297</v>
+      </c>
+      <c r="I652" t="n">
+        <v>0.003807458942205738</v>
+      </c>
+      <c r="J652" t="n">
+        <v>241.7379793644828</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>1699.5</v>
+      </c>
+      <c r="D653" t="n">
+        <v>1288.900024414062</v>
+      </c>
+      <c r="E653" t="n">
+        <v>1780.25</v>
+      </c>
+      <c r="F653" t="n">
+        <v>2217.949951171875</v>
+      </c>
+      <c r="G653" t="n">
+        <v>466.5499877929688</v>
+      </c>
+      <c r="H653" t="n">
+        <v>8386.249938964844</v>
+      </c>
+      <c r="I653" t="n">
+        <v>0.003446029420932761</v>
+      </c>
+      <c r="J653" t="n">
+        <v>242.5710155535297</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>1694.699951171875</v>
+      </c>
+      <c r="D654" t="n">
+        <v>1272.300048828125</v>
+      </c>
+      <c r="E654" t="n">
+        <v>1783.150024414062</v>
+      </c>
+      <c r="F654" t="n">
+        <v>2236.14990234375</v>
+      </c>
+      <c r="G654" t="n">
+        <v>467.75</v>
+      </c>
+      <c r="H654" t="n">
+        <v>8389.549926757812</v>
+      </c>
+      <c r="I654" t="n">
+        <v>0.0003934998142180441</v>
+      </c>
+      <c r="J654" t="n">
+        <v>242.6664672030847</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C655" t="n">
+        <v>1724.449951171875</v>
+      </c>
+      <c r="D655" t="n">
+        <v>1234.300048828125</v>
+      </c>
+      <c r="E655" t="n">
+        <v>1778.650024414062</v>
+      </c>
+      <c r="F655" t="n">
+        <v>2224.39990234375</v>
+      </c>
+      <c r="G655" t="n">
+        <v>463.3999938964844</v>
+      </c>
+      <c r="H655" t="n">
+        <v>8351.999908447266</v>
+      </c>
+      <c r="I655" t="n">
+        <v>-0.004475808432915339</v>
+      </c>
+      <c r="J655" t="n">
+        <v>241.5803385827913</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C656" t="n">
+        <v>1789.300048828125</v>
+      </c>
+      <c r="D656" t="n">
+        <v>1234.300048828125</v>
+      </c>
+      <c r="E656" t="n">
+        <v>1817.949951171875</v>
+      </c>
+      <c r="F656" t="n">
+        <v>2138.60009765625</v>
+      </c>
+      <c r="G656" t="n">
+        <v>460.7999877929688</v>
+      </c>
+      <c r="H656" t="n">
+        <v>8362.550109863281</v>
+      </c>
+      <c r="I656" t="n">
+        <v>0.001263194627833399</v>
+      </c>
+      <c r="J656" t="n">
+        <v>241.8855015686793</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C657" t="n">
+        <v>1799.949951171875</v>
+      </c>
+      <c r="D657" t="n">
+        <v>1249.650024414062</v>
+      </c>
+      <c r="E657" t="n">
+        <v>1830.099975585938</v>
+      </c>
+      <c r="F657" t="n">
+        <v>2140.14990234375</v>
+      </c>
+      <c r="G657" t="n">
+        <v>466.9500122070312</v>
+      </c>
+      <c r="H657" t="n">
+        <v>8420.699890136719</v>
+      </c>
+      <c r="I657" t="n">
+        <v>0.006953594239734628</v>
+      </c>
+      <c r="J657" t="n">
+        <v>243.5674751990626</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C658" t="n">
+        <v>1788.25</v>
+      </c>
+      <c r="D658" t="n">
+        <v>1255</v>
+      </c>
+      <c r="E658" t="n">
+        <v>1828.699951171875</v>
+      </c>
+      <c r="F658" t="n">
+        <v>2119.85009765625</v>
+      </c>
+      <c r="G658" t="n">
+        <v>459.2999877929688</v>
+      </c>
+      <c r="H658" t="n">
+        <v>8369.700012207031</v>
+      </c>
+      <c r="I658" t="n">
+        <v>-0.006056489198650145</v>
+      </c>
+      <c r="J658" t="n">
+        <v>242.092311416377</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C659" t="n">
+        <v>1816.650024414062</v>
+      </c>
+      <c r="D659" t="n">
+        <v>1257.449951171875</v>
+      </c>
+      <c r="E659" t="n">
+        <v>1852.949951171875</v>
+      </c>
+      <c r="F659" t="n">
+        <v>2111</v>
+      </c>
+      <c r="G659" t="n">
+        <v>459</v>
+      </c>
+      <c r="H659" t="n">
+        <v>8415.049926757812</v>
+      </c>
+      <c r="I659" t="n">
+        <v>0.005418344084571652</v>
+      </c>
+      <c r="J659" t="n">
+        <v>243.4040508598601</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C660" t="n">
+        <v>1888</v>
+      </c>
+      <c r="D660" t="n">
+        <v>1264.349975585938</v>
+      </c>
+      <c r="E660" t="n">
+        <v>1921.550048828125</v>
+      </c>
+      <c r="F660" t="n">
+        <v>2101.35009765625</v>
+      </c>
+      <c r="G660" t="n">
+        <v>451.75</v>
+      </c>
+      <c r="H660" t="n">
+        <v>8530.500122070312</v>
+      </c>
+      <c r="I660" t="n">
+        <v>0.01371949023681921</v>
+      </c>
+      <c r="J660" t="n">
+        <v>246.7434303592342</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C661" t="n">
+        <v>1934.900024414062</v>
+      </c>
+      <c r="D661" t="n">
+        <v>1259.75</v>
+      </c>
+      <c r="E661" t="n">
+        <v>1916</v>
+      </c>
+      <c r="F661" t="n">
+        <v>2047.199951171875</v>
+      </c>
+      <c r="G661" t="n">
+        <v>447.8999938964844</v>
+      </c>
+      <c r="H661" t="n">
+        <v>8501.549957275391</v>
+      </c>
+      <c r="I661" t="n">
+        <v>-0.003393724210849177</v>
+      </c>
+      <c r="J661" t="n">
+        <v>245.9060512057561</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C662" t="n">
+        <v>1891.199951171875</v>
+      </c>
+      <c r="D662" t="n">
+        <v>1257.550048828125</v>
+      </c>
+      <c r="E662" t="n">
+        <v>1904.050048828125</v>
+      </c>
+      <c r="F662" t="n">
+        <v>2034.699951171875</v>
+      </c>
+      <c r="G662" t="n">
+        <v>452.75</v>
+      </c>
+      <c r="H662" t="n">
+        <v>8445.75</v>
+      </c>
+      <c r="I662" t="n">
+        <v>-0.006563504014657771</v>
+      </c>
+      <c r="J662" t="n">
+        <v>244.2920458514385</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C663" t="n">
+        <v>1879.449951171875</v>
+      </c>
+      <c r="D663" t="n">
+        <v>1232.050048828125</v>
+      </c>
+      <c r="E663" t="n">
+        <v>1889.400024414062</v>
+      </c>
+      <c r="F663" t="n">
+        <v>2042.550048828125</v>
+      </c>
+      <c r="G663" t="n">
+        <v>448.8500061035156</v>
+      </c>
+      <c r="H663" t="n">
+        <v>8390.000091552734</v>
+      </c>
+      <c r="I663" t="n">
+        <v>-0.006600942302017657</v>
+      </c>
+      <c r="J663" t="n">
+        <v>242.6794881519313</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C664" t="n">
+        <v>1866.650024414062</v>
+      </c>
+      <c r="D664" t="n">
+        <v>1234.5</v>
+      </c>
+      <c r="E664" t="n">
+        <v>1929.199951171875</v>
+      </c>
+      <c r="F664" t="n">
+        <v>2025.699951171875</v>
+      </c>
+      <c r="G664" t="n">
+        <v>450</v>
+      </c>
+      <c r="H664" t="n">
+        <v>8406.049926757812</v>
+      </c>
+      <c r="I664" t="n">
+        <v>0.00191297199403341</v>
+      </c>
+      <c r="J664" t="n">
+        <v>243.1437272162923</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C665" t="n">
+        <v>1930.099975585938</v>
+      </c>
+      <c r="D665" t="n">
+        <v>1246.550048828125</v>
+      </c>
+      <c r="E665" t="n">
+        <v>1928.400024414062</v>
+      </c>
+      <c r="F665" t="n">
+        <v>2062.300048828125</v>
+      </c>
+      <c r="G665" t="n">
+        <v>446.7999877929688</v>
+      </c>
+      <c r="H665" t="n">
+        <v>8507.750061035156</v>
+      </c>
+      <c r="I665" t="n">
+        <v>0.01209844518691423</v>
+      </c>
+      <c r="J665" t="n">
+        <v>246.0853882725606</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C666" t="n">
+        <v>2012.849975585938</v>
+      </c>
+      <c r="D666" t="n">
+        <v>1229.900024414062</v>
+      </c>
+      <c r="E666" t="n">
+        <v>1882.449951171875</v>
+      </c>
+      <c r="F666" t="n">
+        <v>2039</v>
+      </c>
+      <c r="G666" t="n">
+        <v>445.75</v>
+      </c>
+      <c r="H666" t="n">
+        <v>8501.449951171875</v>
+      </c>
+      <c r="I666" t="n">
+        <v>-0.000740514215636784</v>
+      </c>
+      <c r="J666" t="n">
+        <v>245.9031585442843</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C667" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D667" t="n">
+        <v>1238.800048828125</v>
+      </c>
+      <c r="E667" t="n">
+        <v>1914.400024414062</v>
+      </c>
+      <c r="F667" t="n">
+        <v>2064.550048828125</v>
+      </c>
+      <c r="G667" t="n">
+        <v>439.25</v>
+      </c>
+      <c r="H667" t="n">
+        <v>8561.500122070312</v>
+      </c>
+      <c r="I667" t="n">
+        <v>0.007063521075032611</v>
+      </c>
+      <c r="J667" t="n">
+        <v>247.640100687079</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C668" t="n">
+        <v>2051.39990234375</v>
+      </c>
+      <c r="D668" t="n">
+        <v>1252.949951171875</v>
+      </c>
+      <c r="E668" t="n">
+        <v>1910.849975585938</v>
+      </c>
+      <c r="F668" t="n">
+        <v>2112.050048828125</v>
+      </c>
+      <c r="G668" t="n">
+        <v>441.5499877929688</v>
+      </c>
+      <c r="H668" t="n">
+        <v>8651.899841308594</v>
+      </c>
+      <c r="I668" t="n">
+        <v>0.01055886444540762</v>
+      </c>
+      <c r="J668" t="n">
+        <v>250.2548989414809</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C669" t="n">
+        <v>2134.800048828125</v>
+      </c>
+      <c r="D669" t="n">
+        <v>1277.199951171875</v>
+      </c>
+      <c r="E669" t="n">
+        <v>1857.550048828125</v>
+      </c>
+      <c r="F669" t="n">
+        <v>2155.60009765625</v>
+      </c>
+      <c r="G669" t="n">
+        <v>419.25</v>
+      </c>
+      <c r="H669" t="n">
+        <v>8682.900146484375</v>
+      </c>
+      <c r="I669" t="n">
+        <v>0.003583063343818423</v>
+      </c>
+      <c r="J669" t="n">
+        <v>251.1515780964891</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C670" t="n">
+        <v>2119.5</v>
+      </c>
+      <c r="D670" t="n">
+        <v>1275.75</v>
+      </c>
+      <c r="E670" t="n">
+        <v>1866.699951171875</v>
+      </c>
+      <c r="F670" t="n">
+        <v>2201.449951171875</v>
+      </c>
+      <c r="G670" t="n">
+        <v>422.7999877929688</v>
+      </c>
+      <c r="H670" t="n">
+        <v>8731.799865722656</v>
+      </c>
+      <c r="I670" t="n">
+        <v>0.005631726544509473</v>
+      </c>
+      <c r="J670" t="n">
+        <v>252.5659951055506</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Luxury_Goods.xlsx
+++ b/NAV/Luxury_Goods.xlsx
@@ -506,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J670"/>
+  <dimension ref="A1:J690"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
       <selection activeCell="G585" sqref="G585"/>
@@ -20432,6 +20432,626 @@
         <v>252.5659951055506</v>
       </c>
     </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C671" t="n">
+        <v>1660.599975585938</v>
+      </c>
+      <c r="D671" t="n">
+        <v>1280.449951171875</v>
+      </c>
+      <c r="E671" t="n">
+        <v>1769.650024414062</v>
+      </c>
+      <c r="F671" t="n">
+        <v>2220.5</v>
+      </c>
+      <c r="G671" t="n">
+        <v>464.8500061035156</v>
+      </c>
+      <c r="H671" t="n">
+        <v>8325.749969482422</v>
+      </c>
+      <c r="I671" t="n">
+        <v>0</v>
+      </c>
+      <c r="J671" t="n">
+        <v>252.5659951055506</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C672" t="n">
+        <v>1683.75</v>
+      </c>
+      <c r="D672" t="n">
+        <v>1248.449951171875</v>
+      </c>
+      <c r="E672" t="n">
+        <v>1810.949951171875</v>
+      </c>
+      <c r="F672" t="n">
+        <v>2205.5</v>
+      </c>
+      <c r="G672" t="n">
+        <v>469.6000061035156</v>
+      </c>
+      <c r="H672" t="n">
+        <v>8357.449920654297</v>
+      </c>
+      <c r="I672" t="n">
+        <v>0.003807458942205738</v>
+      </c>
+      <c r="J672" t="n">
+        <v>253.5276297621123</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C673" t="n">
+        <v>1699.5</v>
+      </c>
+      <c r="D673" t="n">
+        <v>1288.900024414062</v>
+      </c>
+      <c r="E673" t="n">
+        <v>1780.25</v>
+      </c>
+      <c r="F673" t="n">
+        <v>2217.949951171875</v>
+      </c>
+      <c r="G673" t="n">
+        <v>466.5499877929688</v>
+      </c>
+      <c r="H673" t="n">
+        <v>8386.249938964844</v>
+      </c>
+      <c r="I673" t="n">
+        <v>0.003446029420932761</v>
+      </c>
+      <c r="J673" t="n">
+        <v>254.4012934332919</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C674" t="n">
+        <v>1694.699951171875</v>
+      </c>
+      <c r="D674" t="n">
+        <v>1272.300048828125</v>
+      </c>
+      <c r="E674" t="n">
+        <v>1783.150024414062</v>
+      </c>
+      <c r="F674" t="n">
+        <v>2236.14990234375</v>
+      </c>
+      <c r="G674" t="n">
+        <v>467.75</v>
+      </c>
+      <c r="H674" t="n">
+        <v>8389.549926757812</v>
+      </c>
+      <c r="I674" t="n">
+        <v>0.0003934998142180441</v>
+      </c>
+      <c r="J674" t="n">
+        <v>254.5014002949947</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C675" t="n">
+        <v>1724.449951171875</v>
+      </c>
+      <c r="D675" t="n">
+        <v>1234.300048828125</v>
+      </c>
+      <c r="E675" t="n">
+        <v>1778.650024414062</v>
+      </c>
+      <c r="F675" t="n">
+        <v>2224.39990234375</v>
+      </c>
+      <c r="G675" t="n">
+        <v>463.3999938964844</v>
+      </c>
+      <c r="H675" t="n">
+        <v>8351.999908447266</v>
+      </c>
+      <c r="I675" t="n">
+        <v>-0.004475808432915339</v>
+      </c>
+      <c r="J675" t="n">
+        <v>253.3623007813657</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C676" t="n">
+        <v>1789.300048828125</v>
+      </c>
+      <c r="D676" t="n">
+        <v>1234.300048828125</v>
+      </c>
+      <c r="E676" t="n">
+        <v>1817.949951171875</v>
+      </c>
+      <c r="F676" t="n">
+        <v>2138.60009765625</v>
+      </c>
+      <c r="G676" t="n">
+        <v>460.7999877929688</v>
+      </c>
+      <c r="H676" t="n">
+        <v>8362.550109863281</v>
+      </c>
+      <c r="I676" t="n">
+        <v>0.001263194627833399</v>
+      </c>
+      <c r="J676" t="n">
+        <v>253.6823466786082</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C677" t="n">
+        <v>1799.949951171875</v>
+      </c>
+      <c r="D677" t="n">
+        <v>1249.650024414062</v>
+      </c>
+      <c r="E677" t="n">
+        <v>1830.099975585938</v>
+      </c>
+      <c r="F677" t="n">
+        <v>2140.14990234375</v>
+      </c>
+      <c r="G677" t="n">
+        <v>466.9500122070312</v>
+      </c>
+      <c r="H677" t="n">
+        <v>8420.699890136719</v>
+      </c>
+      <c r="I677" t="n">
+        <v>0.006953594239734628</v>
+      </c>
+      <c r="J677" t="n">
+        <v>255.4463507831949</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C678" t="n">
+        <v>1788.25</v>
+      </c>
+      <c r="D678" t="n">
+        <v>1255</v>
+      </c>
+      <c r="E678" t="n">
+        <v>1828.699951171875</v>
+      </c>
+      <c r="F678" t="n">
+        <v>2119.85009765625</v>
+      </c>
+      <c r="G678" t="n">
+        <v>459.2999877929688</v>
+      </c>
+      <c r="H678" t="n">
+        <v>8369.700012207031</v>
+      </c>
+      <c r="I678" t="n">
+        <v>-0.006056489198650145</v>
+      </c>
+      <c r="J678" t="n">
+        <v>253.8992427188419</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C679" t="n">
+        <v>1816.650024414062</v>
+      </c>
+      <c r="D679" t="n">
+        <v>1257.449951171875</v>
+      </c>
+      <c r="E679" t="n">
+        <v>1852.949951171875</v>
+      </c>
+      <c r="F679" t="n">
+        <v>2111</v>
+      </c>
+      <c r="G679" t="n">
+        <v>459</v>
+      </c>
+      <c r="H679" t="n">
+        <v>8415.049926757812</v>
+      </c>
+      <c r="I679" t="n">
+        <v>0.005418344084571652</v>
+      </c>
+      <c r="J679" t="n">
+        <v>255.2749561787047</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C680" t="n">
+        <v>1888</v>
+      </c>
+      <c r="D680" t="n">
+        <v>1264.349975585938</v>
+      </c>
+      <c r="E680" t="n">
+        <v>1921.550048828125</v>
+      </c>
+      <c r="F680" t="n">
+        <v>2101.35009765625</v>
+      </c>
+      <c r="G680" t="n">
+        <v>451.75</v>
+      </c>
+      <c r="H680" t="n">
+        <v>8530.500122070312</v>
+      </c>
+      <c r="I680" t="n">
+        <v>0.01371949023681921</v>
+      </c>
+      <c r="J680" t="n">
+        <v>258.7771984477029</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C681" t="n">
+        <v>1934.900024414062</v>
+      </c>
+      <c r="D681" t="n">
+        <v>1259.75</v>
+      </c>
+      <c r="E681" t="n">
+        <v>1916</v>
+      </c>
+      <c r="F681" t="n">
+        <v>2047.199951171875</v>
+      </c>
+      <c r="G681" t="n">
+        <v>447.8999938964844</v>
+      </c>
+      <c r="H681" t="n">
+        <v>8501.549957275391</v>
+      </c>
+      <c r="I681" t="n">
+        <v>-0.003393724210849177</v>
+      </c>
+      <c r="J681" t="n">
+        <v>257.8989800041152</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C682" t="n">
+        <v>1891.199951171875</v>
+      </c>
+      <c r="D682" t="n">
+        <v>1257.550048828125</v>
+      </c>
+      <c r="E682" t="n">
+        <v>1904.050048828125</v>
+      </c>
+      <c r="F682" t="n">
+        <v>2034.699951171875</v>
+      </c>
+      <c r="G682" t="n">
+        <v>452.75</v>
+      </c>
+      <c r="H682" t="n">
+        <v>8445.75</v>
+      </c>
+      <c r="I682" t="n">
+        <v>-0.006563504014657771</v>
+      </c>
+      <c r="J682" t="n">
+        <v>256.2062590134821</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C683" t="n">
+        <v>1879.449951171875</v>
+      </c>
+      <c r="D683" t="n">
+        <v>1232.050048828125</v>
+      </c>
+      <c r="E683" t="n">
+        <v>1889.400024414062</v>
+      </c>
+      <c r="F683" t="n">
+        <v>2042.550048828125</v>
+      </c>
+      <c r="G683" t="n">
+        <v>448.8500061035156</v>
+      </c>
+      <c r="H683" t="n">
+        <v>8390.000091552734</v>
+      </c>
+      <c r="I683" t="n">
+        <v>-0.006600942302017657</v>
+      </c>
+      <c r="J683" t="n">
+        <v>254.5150562803182</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C684" t="n">
+        <v>1866.650024414062</v>
+      </c>
+      <c r="D684" t="n">
+        <v>1234.5</v>
+      </c>
+      <c r="E684" t="n">
+        <v>1929.199951171875</v>
+      </c>
+      <c r="F684" t="n">
+        <v>2025.699951171875</v>
+      </c>
+      <c r="G684" t="n">
+        <v>450</v>
+      </c>
+      <c r="H684" t="n">
+        <v>8406.049926757812</v>
+      </c>
+      <c r="I684" t="n">
+        <v>0.00191297199403341</v>
+      </c>
+      <c r="J684" t="n">
+        <v>255.0019364550423</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C685" t="n">
+        <v>1930.099975585938</v>
+      </c>
+      <c r="D685" t="n">
+        <v>1246.550048828125</v>
+      </c>
+      <c r="E685" t="n">
+        <v>1928.400024414062</v>
+      </c>
+      <c r="F685" t="n">
+        <v>2062.300048828125</v>
+      </c>
+      <c r="G685" t="n">
+        <v>446.7999877929688</v>
+      </c>
+      <c r="H685" t="n">
+        <v>8507.750061035156</v>
+      </c>
+      <c r="I685" t="n">
+        <v>0.01209844518691423</v>
+      </c>
+      <c r="J685" t="n">
+        <v>258.0870634058006</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C686" t="n">
+        <v>2012.849975585938</v>
+      </c>
+      <c r="D686" t="n">
+        <v>1229.900024414062</v>
+      </c>
+      <c r="E686" t="n">
+        <v>1882.449951171875</v>
+      </c>
+      <c r="F686" t="n">
+        <v>2039</v>
+      </c>
+      <c r="G686" t="n">
+        <v>445.75</v>
+      </c>
+      <c r="H686" t="n">
+        <v>8501.449951171875</v>
+      </c>
+      <c r="I686" t="n">
+        <v>-0.000740514215636784</v>
+      </c>
+      <c r="J686" t="n">
+        <v>257.8959462664766</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C687" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D687" t="n">
+        <v>1238.800048828125</v>
+      </c>
+      <c r="E687" t="n">
+        <v>1914.400024414062</v>
+      </c>
+      <c r="F687" t="n">
+        <v>2064.550048828125</v>
+      </c>
+      <c r="G687" t="n">
+        <v>439.25</v>
+      </c>
+      <c r="H687" t="n">
+        <v>8561.500122070312</v>
+      </c>
+      <c r="I687" t="n">
+        <v>0.007063521075032611</v>
+      </c>
+      <c r="J687" t="n">
+        <v>259.7175997180954</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C688" t="n">
+        <v>2051.39990234375</v>
+      </c>
+      <c r="D688" t="n">
+        <v>1252.949951171875</v>
+      </c>
+      <c r="E688" t="n">
+        <v>1910.849975585938</v>
+      </c>
+      <c r="F688" t="n">
+        <v>2112.050048828125</v>
+      </c>
+      <c r="G688" t="n">
+        <v>441.5499877929688</v>
+      </c>
+      <c r="H688" t="n">
+        <v>8651.899841308594</v>
+      </c>
+      <c r="I688" t="n">
+        <v>0.01055886444540762</v>
+      </c>
+      <c r="J688" t="n">
+        <v>262.4599226476054</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C689" t="n">
+        <v>2134.800048828125</v>
+      </c>
+      <c r="D689" t="n">
+        <v>1277.199951171875</v>
+      </c>
+      <c r="E689" t="n">
+        <v>1857.550048828125</v>
+      </c>
+      <c r="F689" t="n">
+        <v>2155.60009765625</v>
+      </c>
+      <c r="G689" t="n">
+        <v>419.25</v>
+      </c>
+      <c r="H689" t="n">
+        <v>8682.900146484375</v>
+      </c>
+      <c r="I689" t="n">
+        <v>0.003583063343818423</v>
+      </c>
+      <c r="J689" t="n">
+        <v>263.4003331756655</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C690" t="n">
+        <v>2119.5</v>
+      </c>
+      <c r="D690" t="n">
+        <v>1275.75</v>
+      </c>
+      <c r="E690" t="n">
+        <v>1866.699951171875</v>
+      </c>
+      <c r="F690" t="n">
+        <v>2201.449951171875</v>
+      </c>
+      <c r="G690" t="n">
+        <v>422.7999877929688</v>
+      </c>
+      <c r="H690" t="n">
+        <v>8731.799865722656</v>
+      </c>
+      <c r="I690" t="n">
+        <v>0.005631726544509473</v>
+      </c>
+      <c r="J690" t="n">
+        <v>264.8837318238435</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Luxury_Goods.xlsx
+++ b/NAV/Luxury_Goods.xlsx
@@ -508,7 +508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J610"/>
+  <dimension ref="A1:J631"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
       <selection activeCell="A590" sqref="A590"/>
@@ -18574,6 +18574,657 @@
         <v>218.9443043986576</v>
       </c>
     </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C611" t="n">
+        <v>1660.599975585938</v>
+      </c>
+      <c r="D611" t="n">
+        <v>1280.449951171875</v>
+      </c>
+      <c r="E611" t="n">
+        <v>1769.650024414062</v>
+      </c>
+      <c r="F611" t="n">
+        <v>2220.5</v>
+      </c>
+      <c r="G611" t="n">
+        <v>464.8500061035156</v>
+      </c>
+      <c r="H611" t="n">
+        <v>8325.749969482422</v>
+      </c>
+      <c r="I611" t="n">
+        <v>0</v>
+      </c>
+      <c r="J611" t="n">
+        <v>218.9443043986576</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C612" t="n">
+        <v>1683.75</v>
+      </c>
+      <c r="D612" t="n">
+        <v>1248.449951171875</v>
+      </c>
+      <c r="E612" t="n">
+        <v>1810.949951171875</v>
+      </c>
+      <c r="F612" t="n">
+        <v>2205.5</v>
+      </c>
+      <c r="G612" t="n">
+        <v>469.6000061035156</v>
+      </c>
+      <c r="H612" t="n">
+        <v>8357.449920654297</v>
+      </c>
+      <c r="I612" t="n">
+        <v>0.003807458942205738</v>
+      </c>
+      <c r="J612" t="n">
+        <v>219.7779258482853</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C613" t="n">
+        <v>1699.5</v>
+      </c>
+      <c r="D613" t="n">
+        <v>1288.900024414062</v>
+      </c>
+      <c r="E613" t="n">
+        <v>1780.25</v>
+      </c>
+      <c r="F613" t="n">
+        <v>2217.949951171875</v>
+      </c>
+      <c r="G613" t="n">
+        <v>466.5499877929688</v>
+      </c>
+      <c r="H613" t="n">
+        <v>8386.249938964844</v>
+      </c>
+      <c r="I613" t="n">
+        <v>0.003446029420932761</v>
+      </c>
+      <c r="J613" t="n">
+        <v>220.5352870468301</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C614" t="n">
+        <v>1694.699951171875</v>
+      </c>
+      <c r="D614" t="n">
+        <v>1272.300048828125</v>
+      </c>
+      <c r="E614" t="n">
+        <v>1783.150024414062</v>
+      </c>
+      <c r="F614" t="n">
+        <v>2236.14990234375</v>
+      </c>
+      <c r="G614" t="n">
+        <v>467.75</v>
+      </c>
+      <c r="H614" t="n">
+        <v>8389.549926757812</v>
+      </c>
+      <c r="I614" t="n">
+        <v>0.0003934998142180441</v>
+      </c>
+      <c r="J614" t="n">
+        <v>220.6220676413116</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C615" t="n">
+        <v>1724.449951171875</v>
+      </c>
+      <c r="D615" t="n">
+        <v>1234.300048828125</v>
+      </c>
+      <c r="E615" t="n">
+        <v>1778.650024414062</v>
+      </c>
+      <c r="F615" t="n">
+        <v>2224.39990234375</v>
+      </c>
+      <c r="G615" t="n">
+        <v>463.3999938964844</v>
+      </c>
+      <c r="H615" t="n">
+        <v>8351.999908447266</v>
+      </c>
+      <c r="I615" t="n">
+        <v>-0.004475808432915339</v>
+      </c>
+      <c r="J615" t="n">
+        <v>219.6346055304754</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C616" t="n">
+        <v>1789.300048828125</v>
+      </c>
+      <c r="D616" t="n">
+        <v>1234.300048828125</v>
+      </c>
+      <c r="E616" t="n">
+        <v>1817.949951171875</v>
+      </c>
+      <c r="F616" t="n">
+        <v>2138.60009765625</v>
+      </c>
+      <c r="G616" t="n">
+        <v>460.7999877929688</v>
+      </c>
+      <c r="H616" t="n">
+        <v>8362.550109863281</v>
+      </c>
+      <c r="I616" t="n">
+        <v>0.001263194627833399</v>
+      </c>
+      <c r="J616" t="n">
+        <v>219.9120467842678</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>1799.949951171875</v>
+      </c>
+      <c r="D617" t="n">
+        <v>1249.650024414062</v>
+      </c>
+      <c r="E617" t="n">
+        <v>1830.099975585938</v>
+      </c>
+      <c r="F617" t="n">
+        <v>2140.14990234375</v>
+      </c>
+      <c r="G617" t="n">
+        <v>466.9500122070312</v>
+      </c>
+      <c r="H617" t="n">
+        <v>8420.699890136719</v>
+      </c>
+      <c r="I617" t="n">
+        <v>0.006953594239734628</v>
+      </c>
+      <c r="J617" t="n">
+        <v>221.4412259260351</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>1788.25</v>
+      </c>
+      <c r="D618" t="n">
+        <v>1255</v>
+      </c>
+      <c r="E618" t="n">
+        <v>1828.699951171875</v>
+      </c>
+      <c r="F618" t="n">
+        <v>2119.85009765625</v>
+      </c>
+      <c r="G618" t="n">
+        <v>459.2999877929688</v>
+      </c>
+      <c r="H618" t="n">
+        <v>8369.700012207031</v>
+      </c>
+      <c r="I618" t="n">
+        <v>-0.006056489198650145</v>
+      </c>
+      <c r="J618" t="n">
+        <v>220.1000695330782</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>1816.650024414062</v>
+      </c>
+      <c r="D619" t="n">
+        <v>1257.449951171875</v>
+      </c>
+      <c r="E619" t="n">
+        <v>1852.949951171875</v>
+      </c>
+      <c r="F619" t="n">
+        <v>2111</v>
+      </c>
+      <c r="G619" t="n">
+        <v>459</v>
+      </c>
+      <c r="H619" t="n">
+        <v>8415.049926757812</v>
+      </c>
+      <c r="I619" t="n">
+        <v>0.005418344084571652</v>
+      </c>
+      <c r="J619" t="n">
+        <v>221.2926474428466</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>1888</v>
+      </c>
+      <c r="D620" t="n">
+        <v>1264.349975585938</v>
+      </c>
+      <c r="E620" t="n">
+        <v>1921.550048828125</v>
+      </c>
+      <c r="F620" t="n">
+        <v>2101.35009765625</v>
+      </c>
+      <c r="G620" t="n">
+        <v>451.75</v>
+      </c>
+      <c r="H620" t="n">
+        <v>8530.500122070312</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0.01371949023681921</v>
+      </c>
+      <c r="J620" t="n">
+        <v>224.3286697589186</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>1934.900024414062</v>
+      </c>
+      <c r="D621" t="n">
+        <v>1259.75</v>
+      </c>
+      <c r="E621" t="n">
+        <v>1916</v>
+      </c>
+      <c r="F621" t="n">
+        <v>2047.199951171875</v>
+      </c>
+      <c r="G621" t="n">
+        <v>447.8999938964844</v>
+      </c>
+      <c r="H621" t="n">
+        <v>8501.549957275391</v>
+      </c>
+      <c r="I621" t="n">
+        <v>-0.003393724210849177</v>
+      </c>
+      <c r="J621" t="n">
+        <v>223.5673601211702</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>1891.199951171875</v>
+      </c>
+      <c r="D622" t="n">
+        <v>1257.550048828125</v>
+      </c>
+      <c r="E622" t="n">
+        <v>1904.050048828125</v>
+      </c>
+      <c r="F622" t="n">
+        <v>2034.699951171875</v>
+      </c>
+      <c r="G622" t="n">
+        <v>452.75</v>
+      </c>
+      <c r="H622" t="n">
+        <v>8445.75</v>
+      </c>
+      <c r="I622" t="n">
+        <v>-0.006563504014657771</v>
+      </c>
+      <c r="J622" t="n">
+        <v>222.0999748554684</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>1879.449951171875</v>
+      </c>
+      <c r="D623" t="n">
+        <v>1232.050048828125</v>
+      </c>
+      <c r="E623" t="n">
+        <v>1889.400024414062</v>
+      </c>
+      <c r="F623" t="n">
+        <v>2042.550048828125</v>
+      </c>
+      <c r="G623" t="n">
+        <v>448.8500061035156</v>
+      </c>
+      <c r="H623" t="n">
+        <v>8390.000091552734</v>
+      </c>
+      <c r="I623" t="n">
+        <v>-0.006600942302017657</v>
+      </c>
+      <c r="J623" t="n">
+        <v>220.6339057361679</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>1866.650024414062</v>
+      </c>
+      <c r="D624" t="n">
+        <v>1234.5</v>
+      </c>
+      <c r="E624" t="n">
+        <v>1929.199951171875</v>
+      </c>
+      <c r="F624" t="n">
+        <v>2025.699951171875</v>
+      </c>
+      <c r="G624" t="n">
+        <v>450</v>
+      </c>
+      <c r="H624" t="n">
+        <v>8406.049926757812</v>
+      </c>
+      <c r="I624" t="n">
+        <v>0.00191297199403341</v>
+      </c>
+      <c r="J624" t="n">
+        <v>221.0559722187754</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>1930.099975585938</v>
+      </c>
+      <c r="D625" t="n">
+        <v>1246.550048828125</v>
+      </c>
+      <c r="E625" t="n">
+        <v>1928.400024414062</v>
+      </c>
+      <c r="F625" t="n">
+        <v>2062.300048828125</v>
+      </c>
+      <c r="G625" t="n">
+        <v>446.7999877929688</v>
+      </c>
+      <c r="H625" t="n">
+        <v>8507.750061035156</v>
+      </c>
+      <c r="I625" t="n">
+        <v>0.01209844518691423</v>
+      </c>
+      <c r="J625" t="n">
+        <v>223.7304057819043</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>2012.849975585938</v>
+      </c>
+      <c r="D626" t="n">
+        <v>1229.900024414062</v>
+      </c>
+      <c r="E626" t="n">
+        <v>1882.449951171875</v>
+      </c>
+      <c r="F626" t="n">
+        <v>2039</v>
+      </c>
+      <c r="G626" t="n">
+        <v>445.75</v>
+      </c>
+      <c r="H626" t="n">
+        <v>8501.449951171875</v>
+      </c>
+      <c r="I626" t="n">
+        <v>-0.000740514215636784</v>
+      </c>
+      <c r="J626" t="n">
+        <v>223.5647302359526</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D627" t="n">
+        <v>1238.800048828125</v>
+      </c>
+      <c r="E627" t="n">
+        <v>1914.400024414062</v>
+      </c>
+      <c r="F627" t="n">
+        <v>2064.550048828125</v>
+      </c>
+      <c r="G627" t="n">
+        <v>439.25</v>
+      </c>
+      <c r="H627" t="n">
+        <v>8561.500122070312</v>
+      </c>
+      <c r="I627" t="n">
+        <v>0.007063521075032611</v>
+      </c>
+      <c r="J627" t="n">
+        <v>225.1438844196082</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>2051.39990234375</v>
+      </c>
+      <c r="D628" t="n">
+        <v>1252.949951171875</v>
+      </c>
+      <c r="E628" t="n">
+        <v>1910.849975585938</v>
+      </c>
+      <c r="F628" t="n">
+        <v>2112.050048828125</v>
+      </c>
+      <c r="G628" t="n">
+        <v>441.5499877929688</v>
+      </c>
+      <c r="H628" t="n">
+        <v>8651.899841308594</v>
+      </c>
+      <c r="I628" t="n">
+        <v>0.01055886444540762</v>
+      </c>
+      <c r="J628" t="n">
+        <v>227.5211481759074</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>2134.800048828125</v>
+      </c>
+      <c r="D629" t="n">
+        <v>1277.199951171875</v>
+      </c>
+      <c r="E629" t="n">
+        <v>1857.550048828125</v>
+      </c>
+      <c r="F629" t="n">
+        <v>2155.60009765625</v>
+      </c>
+      <c r="G629" t="n">
+        <v>419.25</v>
+      </c>
+      <c r="H629" t="n">
+        <v>8682.900146484375</v>
+      </c>
+      <c r="I629" t="n">
+        <v>0.003583063343818423</v>
+      </c>
+      <c r="J629" t="n">
+        <v>228.33637086188</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>2119.5</v>
+      </c>
+      <c r="D630" t="n">
+        <v>1275.75</v>
+      </c>
+      <c r="E630" t="n">
+        <v>1866.699951171875</v>
+      </c>
+      <c r="F630" t="n">
+        <v>2201.449951171875</v>
+      </c>
+      <c r="G630" t="n">
+        <v>422.7999877929688</v>
+      </c>
+      <c r="H630" t="n">
+        <v>8731.799865722656</v>
+      </c>
+      <c r="I630" t="n">
+        <v>0.005631726544509473</v>
+      </c>
+      <c r="J630" t="n">
+        <v>229.6222988627398</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>2063.699951171875</v>
+      </c>
+      <c r="D631" t="n">
+        <v>1275.650024414062</v>
+      </c>
+      <c r="E631" t="n">
+        <v>1845.099975585938</v>
+      </c>
+      <c r="F631" t="n">
+        <v>2289.60009765625</v>
+      </c>
+      <c r="G631" t="n">
+        <v>416.25</v>
+      </c>
+      <c r="H631" t="n">
+        <v>8722.800048828125</v>
+      </c>
+      <c r="I631" t="n">
+        <v>-0.001030694362322792</v>
+      </c>
+      <c r="J631" t="n">
+        <v>229.3856284538383</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Luxury_Goods.xlsx
+++ b/NAV/Luxury_Goods.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -106,9 +106,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -134,7 +134,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,7 +515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J613"/>
+  <dimension ref="A1:J615"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
       <selection activeCell="A590" sqref="A590"/>
@@ -17959,7 +17960,7 @@
       </c>
     </row>
     <row r="591">
-      <c r="A591" s="21" t="n">
+      <c r="A591" s="22" t="n">
         <v>45533</v>
       </c>
       <c r="C591" t="n">
@@ -17988,7 +17989,7 @@
       </c>
     </row>
     <row r="592">
-      <c r="A592" s="21" t="n">
+      <c r="A592" s="22" t="n">
         <v>45534</v>
       </c>
       <c r="C592" t="n">
@@ -18017,7 +18018,7 @@
       </c>
     </row>
     <row r="593">
-      <c r="A593" s="21" t="n">
+      <c r="A593" s="22" t="n">
         <v>45537</v>
       </c>
       <c r="C593" t="n">
@@ -18046,7 +18047,7 @@
       </c>
     </row>
     <row r="594">
-      <c r="A594" s="21" t="n">
+      <c r="A594" s="22" t="n">
         <v>45538</v>
       </c>
       <c r="C594" t="n">
@@ -18075,7 +18076,7 @@
       </c>
     </row>
     <row r="595">
-      <c r="A595" s="21" t="n">
+      <c r="A595" s="22" t="n">
         <v>45539</v>
       </c>
       <c r="C595" t="n">
@@ -18104,7 +18105,7 @@
       </c>
     </row>
     <row r="596">
-      <c r="A596" s="21" t="n">
+      <c r="A596" s="22" t="n">
         <v>45540</v>
       </c>
       <c r="C596" t="n">
@@ -18133,7 +18134,7 @@
       </c>
     </row>
     <row r="597">
-      <c r="A597" s="21" t="n">
+      <c r="A597" s="22" t="n">
         <v>45541</v>
       </c>
       <c r="C597" t="n">
@@ -18162,7 +18163,7 @@
       </c>
     </row>
     <row r="598">
-      <c r="A598" s="21" t="n">
+      <c r="A598" s="22" t="n">
         <v>45544</v>
       </c>
       <c r="C598" t="n">
@@ -18191,7 +18192,7 @@
       </c>
     </row>
     <row r="599">
-      <c r="A599" s="21" t="n">
+      <c r="A599" s="22" t="n">
         <v>45545</v>
       </c>
       <c r="C599" t="n">
@@ -18220,7 +18221,7 @@
       </c>
     </row>
     <row r="600">
-      <c r="A600" s="21" t="n">
+      <c r="A600" s="22" t="n">
         <v>45546</v>
       </c>
       <c r="C600" t="n">
@@ -18249,7 +18250,7 @@
       </c>
     </row>
     <row r="601">
-      <c r="A601" s="21" t="n">
+      <c r="A601" s="22" t="n">
         <v>45547</v>
       </c>
       <c r="C601" t="n">
@@ -18278,7 +18279,7 @@
       </c>
     </row>
     <row r="602">
-      <c r="A602" s="21" t="n">
+      <c r="A602" s="22" t="n">
         <v>45548</v>
       </c>
       <c r="C602" t="n">
@@ -18307,7 +18308,7 @@
       </c>
     </row>
     <row r="603">
-      <c r="A603" s="21" t="n">
+      <c r="A603" s="22" t="n">
         <v>45551</v>
       </c>
       <c r="C603" t="n">
@@ -18336,7 +18337,7 @@
       </c>
     </row>
     <row r="604">
-      <c r="A604" s="21" t="n">
+      <c r="A604" s="22" t="n">
         <v>45552</v>
       </c>
       <c r="C604" t="n">
@@ -18365,7 +18366,7 @@
       </c>
     </row>
     <row r="605">
-      <c r="A605" s="21" t="n">
+      <c r="A605" s="22" t="n">
         <v>45553</v>
       </c>
       <c r="C605" t="n">
@@ -18394,7 +18395,7 @@
       </c>
     </row>
     <row r="606">
-      <c r="A606" s="21" t="n">
+      <c r="A606" s="22" t="n">
         <v>45554</v>
       </c>
       <c r="C606" t="n">
@@ -18423,7 +18424,7 @@
       </c>
     </row>
     <row r="607">
-      <c r="A607" s="21" t="n">
+      <c r="A607" s="22" t="n">
         <v>45555</v>
       </c>
       <c r="C607" t="n">
@@ -18452,7 +18453,7 @@
       </c>
     </row>
     <row r="608">
-      <c r="A608" s="21" t="n">
+      <c r="A608" s="22" t="n">
         <v>45558</v>
       </c>
       <c r="C608" t="n">
@@ -18481,7 +18482,7 @@
       </c>
     </row>
     <row r="609">
-      <c r="A609" s="21" t="n">
+      <c r="A609" s="22" t="n">
         <v>45559</v>
       </c>
       <c r="C609" t="n">
@@ -18510,7 +18511,7 @@
       </c>
     </row>
     <row r="610">
-      <c r="A610" s="21" t="n">
+      <c r="A610" s="22" t="n">
         <v>45560</v>
       </c>
       <c r="C610" t="n">
@@ -18539,7 +18540,7 @@
       </c>
     </row>
     <row r="611">
-      <c r="A611" s="21" t="n">
+      <c r="A611" s="22" t="n">
         <v>45561</v>
       </c>
       <c r="C611" t="n">
@@ -18568,7 +18569,7 @@
       </c>
     </row>
     <row r="612">
-      <c r="A612" s="21" t="n">
+      <c r="A612" s="22" t="n">
         <v>45562</v>
       </c>
       <c r="C612" t="n">
@@ -18597,7 +18598,7 @@
       </c>
     </row>
     <row r="613">
-      <c r="A613" s="21" t="n">
+      <c r="A613" s="22" t="n">
         <v>45565</v>
       </c>
       <c r="C613" t="n">
@@ -18623,6 +18624,64 @@
       </c>
       <c r="J613" t="n">
         <v>217.2521539994421</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C614" t="n">
+        <v>2095.85009765625</v>
+      </c>
+      <c r="D614" t="n">
+        <v>1283.199951171875</v>
+      </c>
+      <c r="E614" t="n">
+        <v>1854.550048828125</v>
+      </c>
+      <c r="F614" t="n">
+        <v>2284.35009765625</v>
+      </c>
+      <c r="G614" t="n">
+        <v>432.0499877929688</v>
+      </c>
+      <c r="H614" t="n">
+        <v>8814.100158691406</v>
+      </c>
+      <c r="I614" t="n">
+        <v>0</v>
+      </c>
+      <c r="J614" t="n">
+        <v>217.2521539994421</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C615" t="n">
+        <v>2147.14990234375</v>
+      </c>
+      <c r="D615" t="n">
+        <v>1243</v>
+      </c>
+      <c r="E615" t="n">
+        <v>1845.650024414062</v>
+      </c>
+      <c r="F615" t="n">
+        <v>2326.699951171875</v>
+      </c>
+      <c r="G615" t="n">
+        <v>427.3500061035156</v>
+      </c>
+      <c r="H615" t="n">
+        <v>8844.549896240234</v>
+      </c>
+      <c r="I615" t="n">
+        <v>0.003454662075606465</v>
+      </c>
+      <c r="J615" t="n">
+        <v>218.0026867767078</v>
       </c>
     </row>
   </sheetData>

--- a/NAV/Luxury_Goods.xlsx
+++ b/NAV/Luxury_Goods.xlsx
@@ -515,7 +515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J615"/>
+  <dimension ref="A1:J617"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
       <selection activeCell="A590" sqref="A590"/>
@@ -18684,6 +18684,64 @@
         <v>218.0026867767078</v>
       </c>
     </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C616" t="n">
+        <v>2095.85009765625</v>
+      </c>
+      <c r="D616" t="n">
+        <v>1283.199951171875</v>
+      </c>
+      <c r="E616" t="n">
+        <v>1854.550048828125</v>
+      </c>
+      <c r="F616" t="n">
+        <v>2284.35009765625</v>
+      </c>
+      <c r="G616" t="n">
+        <v>432.0499877929688</v>
+      </c>
+      <c r="H616" t="n">
+        <v>8814.100158691406</v>
+      </c>
+      <c r="I616" t="n">
+        <v>0</v>
+      </c>
+      <c r="J616" t="n">
+        <v>218.0026867767078</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C617" t="n">
+        <v>2147.14990234375</v>
+      </c>
+      <c r="D617" t="n">
+        <v>1243</v>
+      </c>
+      <c r="E617" t="n">
+        <v>1845.650024414062</v>
+      </c>
+      <c r="F617" t="n">
+        <v>2326.699951171875</v>
+      </c>
+      <c r="G617" t="n">
+        <v>427.3500061035156</v>
+      </c>
+      <c r="H617" t="n">
+        <v>8844.549896240234</v>
+      </c>
+      <c r="I617" t="n">
+        <v>0.003454662075606465</v>
+      </c>
+      <c r="J617" t="n">
+        <v>218.7558123910956</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Luxury_Goods.xlsx
+++ b/NAV/Luxury_Goods.xlsx
@@ -515,7 +515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J617"/>
+  <dimension ref="A1:J619"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
       <selection activeCell="A590" sqref="A590"/>
@@ -18742,6 +18742,64 @@
         <v>218.7558123910956</v>
       </c>
     </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C618" t="n">
+        <v>2095.85009765625</v>
+      </c>
+      <c r="D618" t="n">
+        <v>1283.199951171875</v>
+      </c>
+      <c r="E618" t="n">
+        <v>1854.550048828125</v>
+      </c>
+      <c r="F618" t="n">
+        <v>2284.35009765625</v>
+      </c>
+      <c r="G618" t="n">
+        <v>432.0499877929688</v>
+      </c>
+      <c r="H618" t="n">
+        <v>8814.100158691406</v>
+      </c>
+      <c r="I618" t="n">
+        <v>0</v>
+      </c>
+      <c r="J618" t="n">
+        <v>218.7558123910956</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C619" t="n">
+        <v>2147.14990234375</v>
+      </c>
+      <c r="D619" t="n">
+        <v>1243</v>
+      </c>
+      <c r="E619" t="n">
+        <v>1845.650024414062</v>
+      </c>
+      <c r="F619" t="n">
+        <v>2326.699951171875</v>
+      </c>
+      <c r="G619" t="n">
+        <v>427.3500061035156</v>
+      </c>
+      <c r="H619" t="n">
+        <v>8844.549896240234</v>
+      </c>
+      <c r="I619" t="n">
+        <v>0.003454662075606465</v>
+      </c>
+      <c r="J619" t="n">
+        <v>219.5115397999816</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Luxury_Goods.xlsx
+++ b/NAV/Luxury_Goods.xlsx
@@ -108,7 +108,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -136,6 +136,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,7 +516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J619"/>
+  <dimension ref="A1:J621"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
       <selection activeCell="A590" sqref="A590"/>
@@ -18800,6 +18801,64 @@
         <v>219.5115397999816</v>
       </c>
     </row>
+    <row r="620">
+      <c r="A620" s="23" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C620" t="n">
+        <v>2095.85009765625</v>
+      </c>
+      <c r="D620" t="n">
+        <v>1283.199951171875</v>
+      </c>
+      <c r="E620" t="n">
+        <v>1854.550048828125</v>
+      </c>
+      <c r="F620" t="n">
+        <v>2284.35009765625</v>
+      </c>
+      <c r="G620" t="n">
+        <v>432.0499877929688</v>
+      </c>
+      <c r="H620" t="n">
+        <v>8814.100158691406</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0</v>
+      </c>
+      <c r="J620" t="n">
+        <v>219.5115397999816</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="23" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C621" t="n">
+        <v>2147.14990234375</v>
+      </c>
+      <c r="D621" t="n">
+        <v>1243</v>
+      </c>
+      <c r="E621" t="n">
+        <v>1845.650024414062</v>
+      </c>
+      <c r="F621" t="n">
+        <v>2326.699951171875</v>
+      </c>
+      <c r="G621" t="n">
+        <v>427.3500061035156</v>
+      </c>
+      <c r="H621" t="n">
+        <v>8844.549896240234</v>
+      </c>
+      <c r="I621" t="n">
+        <v>0.003454662075606465</v>
+      </c>
+      <c r="J621" t="n">
+        <v>220.2698779916865</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Luxury_Goods.xlsx
+++ b/NAV/Luxury_Goods.xlsx
@@ -514,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J621"/>
+  <dimension ref="A1:J622"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
       <selection activeCell="A590" sqref="A590"/>
@@ -18857,6 +18857,35 @@
         <v>216.5360957907742</v>
       </c>
     </row>
+    <row r="622">
+      <c r="A622" s="21" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C622" t="n">
+        <v>2021.900024414062</v>
+      </c>
+      <c r="D622" t="n">
+        <v>1220</v>
+      </c>
+      <c r="E622" t="n">
+        <v>1791.449951171875</v>
+      </c>
+      <c r="F622" t="n">
+        <v>2359</v>
+      </c>
+      <c r="G622" t="n">
+        <v>432</v>
+      </c>
+      <c r="H622" t="n">
+        <v>8688.349975585938</v>
+      </c>
+      <c r="I622" t="n">
+        <v>0</v>
+      </c>
+      <c r="J622" t="n">
+        <v>216.5360957907742</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Luxury_Goods.xlsx
+++ b/NAV/Luxury_Goods.xlsx
@@ -514,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J622"/>
+  <dimension ref="A1:J623"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
       <selection activeCell="A590" sqref="A590"/>
@@ -18886,6 +18886,35 @@
         <v>216.5360957907742</v>
       </c>
     </row>
+    <row r="623">
+      <c r="A623" s="21" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C623" t="n">
+        <v>2021.900024414062</v>
+      </c>
+      <c r="D623" t="n">
+        <v>1220</v>
+      </c>
+      <c r="E623" t="n">
+        <v>1791.449951171875</v>
+      </c>
+      <c r="F623" t="n">
+        <v>2359</v>
+      </c>
+      <c r="G623" t="n">
+        <v>432</v>
+      </c>
+      <c r="H623" t="n">
+        <v>8688.349975585938</v>
+      </c>
+      <c r="I623" t="n">
+        <v>0</v>
+      </c>
+      <c r="J623" t="n">
+        <v>216.5360957907742</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Luxury_Goods.xlsx
+++ b/NAV/Luxury_Goods.xlsx
@@ -514,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J623"/>
+  <dimension ref="A1:J624"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
       <selection activeCell="A590" sqref="A590"/>
@@ -18915,6 +18915,35 @@
         <v>216.5360957907742</v>
       </c>
     </row>
+    <row r="624">
+      <c r="A624" s="21" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C624" t="n">
+        <v>2021.900024414062</v>
+      </c>
+      <c r="D624" t="n">
+        <v>1220</v>
+      </c>
+      <c r="E624" t="n">
+        <v>1791.449951171875</v>
+      </c>
+      <c r="F624" t="n">
+        <v>2359</v>
+      </c>
+      <c r="G624" t="n">
+        <v>432</v>
+      </c>
+      <c r="H624" t="n">
+        <v>8688.349975585938</v>
+      </c>
+      <c r="I624" t="n">
+        <v>0</v>
+      </c>
+      <c r="J624" t="n">
+        <v>216.5360957907742</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Luxury_Goods.xlsx
+++ b/NAV/Luxury_Goods.xlsx
@@ -514,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J624"/>
+  <dimension ref="A1:J625"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
       <selection activeCell="A590" sqref="A590"/>
@@ -18944,6 +18944,35 @@
         <v>216.5360957907742</v>
       </c>
     </row>
+    <row r="625">
+      <c r="A625" s="21" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C625" t="n">
+        <v>2021.900024414062</v>
+      </c>
+      <c r="D625" t="n">
+        <v>1220</v>
+      </c>
+      <c r="E625" t="n">
+        <v>1791.449951171875</v>
+      </c>
+      <c r="F625" t="n">
+        <v>2359</v>
+      </c>
+      <c r="G625" t="n">
+        <v>432</v>
+      </c>
+      <c r="H625" t="n">
+        <v>8688.349975585938</v>
+      </c>
+      <c r="I625" t="n">
+        <v>0</v>
+      </c>
+      <c r="J625" t="n">
+        <v>216.5360957907742</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Luxury_Goods.xlsx
+++ b/NAV/Luxury_Goods.xlsx
@@ -514,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J625"/>
+  <dimension ref="A1:J626"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
       <selection activeCell="A590" sqref="A590"/>
@@ -18973,6 +18973,35 @@
         <v>216.5360957907742</v>
       </c>
     </row>
+    <row r="626">
+      <c r="A626" s="21" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C626" t="n">
+        <v>2021.900024414062</v>
+      </c>
+      <c r="D626" t="n">
+        <v>1220</v>
+      </c>
+      <c r="E626" t="n">
+        <v>1791.449951171875</v>
+      </c>
+      <c r="F626" t="n">
+        <v>2359</v>
+      </c>
+      <c r="G626" t="n">
+        <v>432</v>
+      </c>
+      <c r="H626" t="n">
+        <v>8688.349975585938</v>
+      </c>
+      <c r="I626" t="n">
+        <v>0</v>
+      </c>
+      <c r="J626" t="n">
+        <v>216.5360957907742</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Luxury_Goods.xlsx
+++ b/NAV/Luxury_Goods.xlsx
@@ -514,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J621"/>
+  <dimension ref="A1:J622"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
       <selection activeCell="A590" sqref="A590"/>
@@ -18857,6 +18857,35 @@
         <v>216.5360957907742</v>
       </c>
     </row>
+    <row r="622">
+      <c r="A622" s="21" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C622" t="n">
+        <v>2022.849975585938</v>
+      </c>
+      <c r="D622" t="n">
+        <v>1204.849975585938</v>
+      </c>
+      <c r="E622" t="n">
+        <v>1794.5</v>
+      </c>
+      <c r="F622" t="n">
+        <v>2372.85009765625</v>
+      </c>
+      <c r="G622" t="n">
+        <v>429.6499938964844</v>
+      </c>
+      <c r="H622" t="n">
+        <v>8684.000030517578</v>
+      </c>
+      <c r="I622" t="n">
+        <v>0</v>
+      </c>
+      <c r="J622" t="n">
+        <v>216.5360957907742</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Luxury_Goods.xlsx
+++ b/NAV/Luxury_Goods.xlsx
@@ -514,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J622"/>
+  <dimension ref="A1:J623"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
       <selection activeCell="A590" sqref="A590"/>
@@ -18886,6 +18886,35 @@
         <v>216.5360957907742</v>
       </c>
     </row>
+    <row r="623">
+      <c r="A623" s="21" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C623" t="n">
+        <v>2022.849975585938</v>
+      </c>
+      <c r="D623" t="n">
+        <v>1204.849975585938</v>
+      </c>
+      <c r="E623" t="n">
+        <v>1794.5</v>
+      </c>
+      <c r="F623" t="n">
+        <v>2372.85009765625</v>
+      </c>
+      <c r="G623" t="n">
+        <v>429.6499938964844</v>
+      </c>
+      <c r="H623" t="n">
+        <v>8684.000030517578</v>
+      </c>
+      <c r="I623" t="n">
+        <v>0</v>
+      </c>
+      <c r="J623" t="n">
+        <v>216.5360957907742</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Luxury_Goods.xlsx
+++ b/NAV/Luxury_Goods.xlsx
@@ -514,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J623"/>
+  <dimension ref="A1:J624"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
       <selection activeCell="A590" sqref="A590"/>
@@ -18915,6 +18915,35 @@
         <v>216.5360957907742</v>
       </c>
     </row>
+    <row r="624">
+      <c r="A624" s="21" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C624" t="n">
+        <v>2022.849975585938</v>
+      </c>
+      <c r="D624" t="n">
+        <v>1204.849975585938</v>
+      </c>
+      <c r="E624" t="n">
+        <v>1794.5</v>
+      </c>
+      <c r="F624" t="n">
+        <v>2372.85009765625</v>
+      </c>
+      <c r="G624" t="n">
+        <v>429.6499938964844</v>
+      </c>
+      <c r="H624" t="n">
+        <v>8684.000030517578</v>
+      </c>
+      <c r="I624" t="n">
+        <v>0</v>
+      </c>
+      <c r="J624" t="n">
+        <v>216.5360957907742</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Luxury_Goods.xlsx
+++ b/NAV/Luxury_Goods.xlsx
@@ -514,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J624"/>
+  <dimension ref="A1:J625"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
       <selection activeCell="A590" sqref="A590"/>
@@ -18944,6 +18944,35 @@
         <v>216.5360957907742</v>
       </c>
     </row>
+    <row r="625">
+      <c r="A625" s="21" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C625" t="n">
+        <v>2022.849975585938</v>
+      </c>
+      <c r="D625" t="n">
+        <v>1204.849975585938</v>
+      </c>
+      <c r="E625" t="n">
+        <v>1794.5</v>
+      </c>
+      <c r="F625" t="n">
+        <v>2372.85009765625</v>
+      </c>
+      <c r="G625" t="n">
+        <v>429.6499938964844</v>
+      </c>
+      <c r="H625" t="n">
+        <v>8684.000030517578</v>
+      </c>
+      <c r="I625" t="n">
+        <v>0</v>
+      </c>
+      <c r="J625" t="n">
+        <v>216.5360957907742</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Luxury_Goods.xlsx
+++ b/NAV/Luxury_Goods.xlsx
@@ -514,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J625"/>
+  <dimension ref="A1:J627"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
       <selection activeCell="A590" sqref="A590"/>
@@ -18973,6 +18973,64 @@
         <v>216.5360957907742</v>
       </c>
     </row>
+    <row r="626">
+      <c r="A626" s="21" t="n">
+        <v>45580</v>
+      </c>
+      <c r="C626" t="n">
+        <v>2048.699951171875</v>
+      </c>
+      <c r="D626" t="n">
+        <v>1206.099975585938</v>
+      </c>
+      <c r="E626" t="n">
+        <v>1811.099975585938</v>
+      </c>
+      <c r="F626" t="n">
+        <v>2387.300048828125</v>
+      </c>
+      <c r="G626" t="n">
+        <v>430.0499877929688</v>
+      </c>
+      <c r="H626" t="n">
+        <v>8743.349914550781</v>
+      </c>
+      <c r="I626" t="n">
+        <v>0</v>
+      </c>
+      <c r="J626" t="n">
+        <v>216.5360957907742</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="21" t="n">
+        <v>45581</v>
+      </c>
+      <c r="C627" t="n">
+        <v>2012.199951171875</v>
+      </c>
+      <c r="D627" t="n">
+        <v>1260.75</v>
+      </c>
+      <c r="E627" t="n">
+        <v>1881.300048828125</v>
+      </c>
+      <c r="F627" t="n">
+        <v>2407.64990234375</v>
+      </c>
+      <c r="G627" t="n">
+        <v>422.6000061035156</v>
+      </c>
+      <c r="H627" t="n">
+        <v>8829.699920654297</v>
+      </c>
+      <c r="I627" t="n">
+        <v>0.00987607804187397</v>
+      </c>
+      <c r="J627" t="n">
+        <v>218.6746231716866</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Luxury_Goods.xlsx
+++ b/NAV/Luxury_Goods.xlsx
@@ -514,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J627"/>
+  <dimension ref="A1:J628"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
       <selection activeCell="A590" sqref="A590"/>
@@ -19031,6 +19031,35 @@
         <v>218.6746231716866</v>
       </c>
     </row>
+    <row r="628">
+      <c r="A628" s="21" t="n">
+        <v>45582</v>
+      </c>
+      <c r="C628" t="n">
+        <v>2019.199951171875</v>
+      </c>
+      <c r="D628" t="n">
+        <v>1268.300048828125</v>
+      </c>
+      <c r="E628" t="n">
+        <v>1834.599975585938</v>
+      </c>
+      <c r="F628" t="n">
+        <v>2355.300048828125</v>
+      </c>
+      <c r="G628" t="n">
+        <v>414.5</v>
+      </c>
+      <c r="H628" t="n">
+        <v>8720.900024414062</v>
+      </c>
+      <c r="I628" t="n">
+        <v>0</v>
+      </c>
+      <c r="J628" t="n">
+        <v>218.6746231716866</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Luxury_Goods.xlsx
+++ b/NAV/Luxury_Goods.xlsx
@@ -521,7 +521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J626"/>
+  <dimension ref="A1:J627"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A568" workbookViewId="0">
       <selection activeCell="C585" sqref="C585"/>
@@ -19017,6 +19017,35 @@
         <v>216.360513941479</v>
       </c>
     </row>
+    <row r="627">
+      <c r="A627" s="28" t="n">
+        <v>45586</v>
+      </c>
+      <c r="C627" t="n">
+        <v>2017.849975585938</v>
+      </c>
+      <c r="D627" t="n">
+        <v>1215.050048828125</v>
+      </c>
+      <c r="E627" t="n">
+        <v>1813.949951171875</v>
+      </c>
+      <c r="F627" t="n">
+        <v>2349.550048828125</v>
+      </c>
+      <c r="G627" t="n">
+        <v>404.7000122070312</v>
+      </c>
+      <c r="H627" t="n">
+        <v>8610.500061035156</v>
+      </c>
+      <c r="I627" t="n">
+        <v>0</v>
+      </c>
+      <c r="J627" t="n">
+        <v>216.360513941479</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Luxury_Goods.xlsx
+++ b/NAV/Luxury_Goods.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2360" yWindow="500" windowWidth="26440" windowHeight="14940" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -18,8 +18,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -126,7 +126,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -156,7 +156,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,7 +537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J698"/>
+  <dimension ref="A1:J757"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A648" workbookViewId="0">
       <selection activeCell="A654" sqref="A654"/>
@@ -19845,7 +19846,7 @@
       </c>
     </row>
     <row r="655">
-      <c r="A655" s="25" t="n">
+      <c r="A655" s="26" t="n">
         <v>45623</v>
       </c>
       <c r="C655" t="n">
@@ -19871,7 +19872,7 @@
       </c>
     </row>
     <row r="656">
-      <c r="A656" s="25" t="n">
+      <c r="A656" s="26" t="n">
         <v>45624</v>
       </c>
       <c r="C656" t="n">
@@ -19897,7 +19898,7 @@
       </c>
     </row>
     <row r="657">
-      <c r="A657" s="25" t="n">
+      <c r="A657" s="26" t="n">
         <v>45625</v>
       </c>
       <c r="C657" t="n">
@@ -19923,7 +19924,7 @@
       </c>
     </row>
     <row r="658">
-      <c r="A658" s="25" t="n">
+      <c r="A658" s="26" t="n">
         <v>45628</v>
       </c>
       <c r="C658" t="n">
@@ -19949,7 +19950,7 @@
       </c>
     </row>
     <row r="659">
-      <c r="A659" s="25" t="n">
+      <c r="A659" s="26" t="n">
         <v>45629</v>
       </c>
       <c r="C659" t="n">
@@ -19975,7 +19976,7 @@
       </c>
     </row>
     <row r="660">
-      <c r="A660" s="25" t="n">
+      <c r="A660" s="26" t="n">
         <v>45630</v>
       </c>
       <c r="C660" t="n">
@@ -20001,7 +20002,7 @@
       </c>
     </row>
     <row r="661">
-      <c r="A661" s="25" t="n">
+      <c r="A661" s="26" t="n">
         <v>45631</v>
       </c>
       <c r="C661" t="n">
@@ -20027,7 +20028,7 @@
       </c>
     </row>
     <row r="662">
-      <c r="A662" s="25" t="n">
+      <c r="A662" s="26" t="n">
         <v>45632</v>
       </c>
       <c r="C662" t="n">
@@ -20053,7 +20054,7 @@
       </c>
     </row>
     <row r="663">
-      <c r="A663" s="25" t="n">
+      <c r="A663" s="26" t="n">
         <v>45635</v>
       </c>
       <c r="C663" t="n">
@@ -20079,7 +20080,7 @@
       </c>
     </row>
     <row r="664">
-      <c r="A664" s="25" t="n">
+      <c r="A664" s="26" t="n">
         <v>45636</v>
       </c>
       <c r="C664" t="n">
@@ -20105,7 +20106,7 @@
       </c>
     </row>
     <row r="665">
-      <c r="A665" s="25" t="n">
+      <c r="A665" s="26" t="n">
         <v>45637</v>
       </c>
       <c r="C665" t="n">
@@ -20131,7 +20132,7 @@
       </c>
     </row>
     <row r="666">
-      <c r="A666" s="25" t="n">
+      <c r="A666" s="26" t="n">
         <v>45638</v>
       </c>
       <c r="C666" t="n">
@@ -20157,7 +20158,7 @@
       </c>
     </row>
     <row r="667">
-      <c r="A667" s="25" t="n">
+      <c r="A667" s="26" t="n">
         <v>45639</v>
       </c>
       <c r="C667" t="n">
@@ -20183,7 +20184,7 @@
       </c>
     </row>
     <row r="668">
-      <c r="A668" s="25" t="n">
+      <c r="A668" s="26" t="n">
         <v>45642</v>
       </c>
       <c r="C668" t="n">
@@ -20209,7 +20210,7 @@
       </c>
     </row>
     <row r="669">
-      <c r="A669" s="25" t="n">
+      <c r="A669" s="26" t="n">
         <v>45643</v>
       </c>
       <c r="C669" t="n">
@@ -20235,7 +20236,7 @@
       </c>
     </row>
     <row r="670">
-      <c r="A670" s="25" t="n">
+      <c r="A670" s="26" t="n">
         <v>45644</v>
       </c>
       <c r="C670" t="n">
@@ -20261,7 +20262,7 @@
       </c>
     </row>
     <row r="671">
-      <c r="A671" s="25" t="n">
+      <c r="A671" s="26" t="n">
         <v>45645</v>
       </c>
       <c r="C671" t="n">
@@ -20287,7 +20288,7 @@
       </c>
     </row>
     <row r="672">
-      <c r="A672" s="25" t="n">
+      <c r="A672" s="26" t="n">
         <v>45646</v>
       </c>
       <c r="C672" t="n">
@@ -20313,7 +20314,7 @@
       </c>
     </row>
     <row r="673">
-      <c r="A673" s="25" t="n">
+      <c r="A673" s="26" t="n">
         <v>45649</v>
       </c>
       <c r="C673" t="n">
@@ -20339,7 +20340,7 @@
       </c>
     </row>
     <row r="674">
-      <c r="A674" s="25" t="n">
+      <c r="A674" s="26" t="n">
         <v>45650</v>
       </c>
       <c r="C674" t="n">
@@ -20365,7 +20366,7 @@
       </c>
     </row>
     <row r="675">
-      <c r="A675" s="25" t="n">
+      <c r="A675" s="26" t="n">
         <v>45652</v>
       </c>
       <c r="C675" t="n">
@@ -20391,7 +20392,7 @@
       </c>
     </row>
     <row r="676">
-      <c r="A676" s="25" t="n">
+      <c r="A676" s="26" t="n">
         <v>45653</v>
       </c>
       <c r="C676" t="n">
@@ -20417,7 +20418,7 @@
       </c>
     </row>
     <row r="677">
-      <c r="A677" s="25" t="n">
+      <c r="A677" s="26" t="n">
         <v>45656</v>
       </c>
       <c r="C677" t="n">
@@ -20443,7 +20444,7 @@
       </c>
     </row>
     <row r="678">
-      <c r="A678" s="25" t="n">
+      <c r="A678" s="26" t="n">
         <v>45657</v>
       </c>
       <c r="C678" t="n">
@@ -20469,7 +20470,7 @@
       </c>
     </row>
     <row r="679">
-      <c r="A679" s="25" t="n">
+      <c r="A679" s="26" t="n">
         <v>45658</v>
       </c>
       <c r="C679" t="n">
@@ -20495,7 +20496,7 @@
       </c>
     </row>
     <row r="680">
-      <c r="A680" s="25" t="n">
+      <c r="A680" s="26" t="n">
         <v>45659</v>
       </c>
       <c r="C680" t="n">
@@ -20521,7 +20522,7 @@
       </c>
     </row>
     <row r="681">
-      <c r="A681" s="25" t="n">
+      <c r="A681" s="26" t="n">
         <v>45660</v>
       </c>
       <c r="C681" t="n">
@@ -20547,7 +20548,7 @@
       </c>
     </row>
     <row r="682">
-      <c r="A682" s="25" t="n">
+      <c r="A682" s="26" t="n">
         <v>45663</v>
       </c>
       <c r="C682" t="n">
@@ -20573,7 +20574,7 @@
       </c>
     </row>
     <row r="683">
-      <c r="A683" s="25" t="n">
+      <c r="A683" s="26" t="n">
         <v>45664</v>
       </c>
       <c r="C683" t="n">
@@ -20599,7 +20600,7 @@
       </c>
     </row>
     <row r="684">
-      <c r="A684" s="25" t="n">
+      <c r="A684" s="26" t="n">
         <v>45665</v>
       </c>
       <c r="C684" t="n">
@@ -20625,7 +20626,7 @@
       </c>
     </row>
     <row r="685">
-      <c r="A685" s="25" t="n">
+      <c r="A685" s="26" t="n">
         <v>45666</v>
       </c>
       <c r="C685" t="n">
@@ -20651,7 +20652,7 @@
       </c>
     </row>
     <row r="686">
-      <c r="A686" s="25" t="n">
+      <c r="A686" s="26" t="n">
         <v>45667</v>
       </c>
       <c r="C686" t="n">
@@ -20677,7 +20678,7 @@
       </c>
     </row>
     <row r="687">
-      <c r="A687" s="25" t="n">
+      <c r="A687" s="26" t="n">
         <v>45670</v>
       </c>
       <c r="C687" t="n">
@@ -20703,7 +20704,7 @@
       </c>
     </row>
     <row r="688">
-      <c r="A688" s="25" t="n">
+      <c r="A688" s="26" t="n">
         <v>45671</v>
       </c>
       <c r="C688" t="n">
@@ -20729,7 +20730,7 @@
       </c>
     </row>
     <row r="689">
-      <c r="A689" s="25" t="n">
+      <c r="A689" s="26" t="n">
         <v>45672</v>
       </c>
       <c r="C689" t="n">
@@ -20755,7 +20756,7 @@
       </c>
     </row>
     <row r="690">
-      <c r="A690" s="25" t="n">
+      <c r="A690" s="26" t="n">
         <v>45673</v>
       </c>
       <c r="C690" t="n">
@@ -20781,7 +20782,7 @@
       </c>
     </row>
     <row r="691">
-      <c r="A691" s="25" t="n">
+      <c r="A691" s="26" t="n">
         <v>45674</v>
       </c>
       <c r="C691" t="n">
@@ -20807,7 +20808,7 @@
       </c>
     </row>
     <row r="692">
-      <c r="A692" s="25" t="n">
+      <c r="A692" s="26" t="n">
         <v>45677</v>
       </c>
       <c r="C692" t="n">
@@ -20833,7 +20834,7 @@
       </c>
     </row>
     <row r="693">
-      <c r="A693" s="25" t="n">
+      <c r="A693" s="26" t="n">
         <v>45678</v>
       </c>
       <c r="C693" t="n">
@@ -20859,7 +20860,7 @@
       </c>
     </row>
     <row r="694">
-      <c r="A694" s="25" t="n">
+      <c r="A694" s="26" t="n">
         <v>45679</v>
       </c>
       <c r="C694" t="n">
@@ -20885,7 +20886,7 @@
       </c>
     </row>
     <row r="695">
-      <c r="A695" s="25" t="n">
+      <c r="A695" s="26" t="n">
         <v>45680</v>
       </c>
       <c r="C695" t="n">
@@ -20911,7 +20912,7 @@
       </c>
     </row>
     <row r="696">
-      <c r="A696" s="25" t="n">
+      <c r="A696" s="26" t="n">
         <v>45681</v>
       </c>
       <c r="C696" t="n">
@@ -20937,7 +20938,7 @@
       </c>
     </row>
     <row r="697">
-      <c r="A697" s="25" t="n">
+      <c r="A697" s="26" t="n">
         <v>45684</v>
       </c>
       <c r="C697" t="n">
@@ -20963,7 +20964,7 @@
       </c>
     </row>
     <row r="698">
-      <c r="A698" s="25" t="n">
+      <c r="A698" s="26" t="n">
         <v>45685</v>
       </c>
       <c r="C698" t="n">
@@ -20986,6 +20987,1540 @@
       </c>
       <c r="J698" t="n">
         <v>170.7047874068917</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="26" t="n">
+        <v>45686</v>
+      </c>
+      <c r="C699" t="n">
+        <v>1202.25</v>
+      </c>
+      <c r="D699" t="n">
+        <v>344.7000122070312</v>
+      </c>
+      <c r="E699" t="n">
+        <v>267.3999938964844</v>
+      </c>
+      <c r="F699" t="n">
+        <v>1474.099975585938</v>
+      </c>
+      <c r="H699" t="n">
+        <v>7818.600006103516</v>
+      </c>
+      <c r="I699" t="n">
+        <v>0.01644543998130184</v>
+      </c>
+      <c r="J699" t="n">
+        <v>173.5121027427126</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="26" t="n">
+        <v>45687</v>
+      </c>
+      <c r="C700" t="n">
+        <v>1201.150024414062</v>
+      </c>
+      <c r="D700" t="n">
+        <v>342.7999877929688</v>
+      </c>
+      <c r="E700" t="n">
+        <v>265.7000122070312</v>
+      </c>
+      <c r="F700" t="n">
+        <v>1269.300048828125</v>
+      </c>
+      <c r="H700" t="n">
+        <v>7588.300109863281</v>
+      </c>
+      <c r="I700" t="n">
+        <v>-0.02945538792884314</v>
+      </c>
+      <c r="J700" t="n">
+        <v>168.4012364460768</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="26" t="n">
+        <v>45688</v>
+      </c>
+      <c r="C701" t="n">
+        <v>1184.849975585938</v>
+      </c>
+      <c r="D701" t="n">
+        <v>343.3999938964844</v>
+      </c>
+      <c r="E701" t="n">
+        <v>273.8500061035156</v>
+      </c>
+      <c r="F701" t="n">
+        <v>1260.849975585938</v>
+      </c>
+      <c r="H701" t="n">
+        <v>7607.899932861328</v>
+      </c>
+      <c r="I701" t="n">
+        <v>0.002582900348468164</v>
+      </c>
+      <c r="J701" t="n">
+        <v>168.8362000583758</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="26" t="n">
+        <v>45689</v>
+      </c>
+      <c r="C702" t="n">
+        <v>1236.25</v>
+      </c>
+      <c r="D702" t="n">
+        <v>370</v>
+      </c>
+      <c r="E702" t="n">
+        <v>283.25</v>
+      </c>
+      <c r="F702" t="n">
+        <v>1323.949951171875</v>
+      </c>
+      <c r="H702" t="n">
+        <v>7999.199951171875</v>
+      </c>
+      <c r="I702" t="n">
+        <v>0.05143338132253523</v>
+      </c>
+      <c r="J702" t="n">
+        <v>177.520016717026</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="26" t="n">
+        <v>45691</v>
+      </c>
+      <c r="C703" t="n">
+        <v>1295.050048828125</v>
+      </c>
+      <c r="D703" t="n">
+        <v>368.7999877929688</v>
+      </c>
+      <c r="E703" t="n">
+        <v>286</v>
+      </c>
+      <c r="F703" t="n">
+        <v>1401.300048828125</v>
+      </c>
+      <c r="H703" t="n">
+        <v>8206.200073242188</v>
+      </c>
+      <c r="I703" t="n">
+        <v>0.02587760317705112</v>
+      </c>
+      <c r="J703" t="n">
+        <v>182.1138092656127</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="26" t="n">
+        <v>45692</v>
+      </c>
+      <c r="C704" t="n">
+        <v>1312.949951171875</v>
+      </c>
+      <c r="D704" t="n">
+        <v>361.3999938964844</v>
+      </c>
+      <c r="E704" t="n">
+        <v>285.6499938964844</v>
+      </c>
+      <c r="F704" t="n">
+        <v>1400.599975585938</v>
+      </c>
+      <c r="H704" t="n">
+        <v>8194.449798583984</v>
+      </c>
+      <c r="I704" t="n">
+        <v>-0.001431877672166078</v>
+      </c>
+      <c r="J704" t="n">
+        <v>181.8530445683322</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="26" t="n">
+        <v>45693</v>
+      </c>
+      <c r="C705" t="n">
+        <v>1316.699951171875</v>
+      </c>
+      <c r="D705" t="n">
+        <v>366.9500122070312</v>
+      </c>
+      <c r="E705" t="n">
+        <v>283.75</v>
+      </c>
+      <c r="F705" t="n">
+        <v>1394.5</v>
+      </c>
+      <c r="H705" t="n">
+        <v>8215.849975585938</v>
+      </c>
+      <c r="I705" t="n">
+        <v>0.002611545317618654</v>
+      </c>
+      <c r="J705" t="n">
+        <v>182.3279620353693</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="26" t="n">
+        <v>45694</v>
+      </c>
+      <c r="C706" t="n">
+        <v>1270.199951171875</v>
+      </c>
+      <c r="D706" t="n">
+        <v>362.6499938964844</v>
+      </c>
+      <c r="E706" t="n">
+        <v>278.6499938964844</v>
+      </c>
+      <c r="F706" t="n">
+        <v>1351.699951171875</v>
+      </c>
+      <c r="H706" t="n">
+        <v>8018.549774169922</v>
+      </c>
+      <c r="I706" t="n">
+        <v>-0.02401458181470075</v>
+      </c>
+      <c r="J706" t="n">
+        <v>177.9494322739633</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="26" t="n">
+        <v>45695</v>
+      </c>
+      <c r="C707" t="n">
+        <v>1240</v>
+      </c>
+      <c r="D707" t="n">
+        <v>365.8500061035156</v>
+      </c>
+      <c r="E707" t="n">
+        <v>275.6000061035156</v>
+      </c>
+      <c r="F707" t="n">
+        <v>1383.25</v>
+      </c>
+      <c r="H707" t="n">
+        <v>7987.550079345703</v>
+      </c>
+      <c r="I707" t="n">
+        <v>-0.003865997680039073</v>
+      </c>
+      <c r="J707" t="n">
+        <v>177.2614801816279</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="26" t="n">
+        <v>45698</v>
+      </c>
+      <c r="C708" t="n">
+        <v>1234.949951171875</v>
+      </c>
+      <c r="D708" t="n">
+        <v>348.8999938964844</v>
+      </c>
+      <c r="E708" t="n">
+        <v>263.4500122070312</v>
+      </c>
+      <c r="F708" t="n">
+        <v>1368.400024414062</v>
+      </c>
+      <c r="H708" t="n">
+        <v>7775.849975585938</v>
+      </c>
+      <c r="I708" t="n">
+        <v>-0.02650375918232828</v>
+      </c>
+      <c r="J708" t="n">
+        <v>172.563384598591</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="26" t="n">
+        <v>45699</v>
+      </c>
+      <c r="C709" t="n">
+        <v>1217.599975585938</v>
+      </c>
+      <c r="D709" t="n">
+        <v>343.1000061035156</v>
+      </c>
+      <c r="E709" t="n">
+        <v>254.9499969482422</v>
+      </c>
+      <c r="F709" t="n">
+        <v>1292.650024414062</v>
+      </c>
+      <c r="H709" t="n">
+        <v>7571.099990844727</v>
+      </c>
+      <c r="I709" t="n">
+        <v>-0.02633152457725785</v>
+      </c>
+      <c r="J709" t="n">
+        <v>168.0195275958984</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="26" t="n">
+        <v>45700</v>
+      </c>
+      <c r="C710" t="n">
+        <v>1143.5</v>
+      </c>
+      <c r="D710" t="n">
+        <v>340</v>
+      </c>
+      <c r="E710" t="n">
+        <v>258</v>
+      </c>
+      <c r="F710" t="n">
+        <v>1299.150024414062</v>
+      </c>
+      <c r="H710" t="n">
+        <v>7432.150024414062</v>
+      </c>
+      <c r="I710" t="n">
+        <v>-0.01835267881796408</v>
+      </c>
+      <c r="J710" t="n">
+        <v>164.9359191707848</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="26" t="n">
+        <v>45701</v>
+      </c>
+      <c r="C711" t="n">
+        <v>1147.199951171875</v>
+      </c>
+      <c r="D711" t="n">
+        <v>342.25</v>
+      </c>
+      <c r="E711" t="n">
+        <v>258.8999938964844</v>
+      </c>
+      <c r="F711" t="n">
+        <v>1248.550048828125</v>
+      </c>
+      <c r="H711" t="n">
+        <v>7408.749908447266</v>
+      </c>
+      <c r="I711" t="n">
+        <v>-0.003148498871783969</v>
+      </c>
+      <c r="J711" t="n">
+        <v>164.4166186153589</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="26" t="n">
+        <v>45702</v>
+      </c>
+      <c r="C712" t="n">
+        <v>1138.650024414062</v>
+      </c>
+      <c r="D712" t="n">
+        <v>330.8999938964844</v>
+      </c>
+      <c r="E712" t="n">
+        <v>247.6000061035156</v>
+      </c>
+      <c r="F712" t="n">
+        <v>1213.849975585938</v>
+      </c>
+      <c r="H712" t="n">
+        <v>7209.750030517578</v>
+      </c>
+      <c r="I712" t="n">
+        <v>-0.02686011545656211</v>
+      </c>
+      <c r="J712" t="n">
+        <v>160.0003692563729</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="26" t="n">
+        <v>45705</v>
+      </c>
+      <c r="C713" t="n">
+        <v>1130.099975585938</v>
+      </c>
+      <c r="D713" t="n">
+        <v>332.6000061035156</v>
+      </c>
+      <c r="E713" t="n">
+        <v>255.5500030517578</v>
+      </c>
+      <c r="F713" t="n">
+        <v>1241.599975585938</v>
+      </c>
+      <c r="H713" t="n">
+        <v>7286.249984741211</v>
+      </c>
+      <c r="I713" t="n">
+        <v>0.01061062504245255</v>
+      </c>
+      <c r="J713" t="n">
+        <v>161.6980731812062</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="26" t="n">
+        <v>45706</v>
+      </c>
+      <c r="C714" t="n">
+        <v>1111.199951171875</v>
+      </c>
+      <c r="D714" t="n">
+        <v>331.25</v>
+      </c>
+      <c r="E714" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="F714" t="n">
+        <v>1226.849975585938</v>
+      </c>
+      <c r="H714" t="n">
+        <v>7190.249877929688</v>
+      </c>
+      <c r="I714" t="n">
+        <v>-0.01317551648825745</v>
+      </c>
+      <c r="J714" t="n">
+        <v>159.5676175518877</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="26" t="n">
+        <v>45707</v>
+      </c>
+      <c r="C715" t="n">
+        <v>1158.099975585938</v>
+      </c>
+      <c r="D715" t="n">
+        <v>329.8999938964844</v>
+      </c>
+      <c r="E715" t="n">
+        <v>251.5500030517578</v>
+      </c>
+      <c r="F715" t="n">
+        <v>1284.099975585938</v>
+      </c>
+      <c r="H715" t="n">
+        <v>7340.549911499023</v>
+      </c>
+      <c r="I715" t="n">
+        <v>0.02090331158457769</v>
+      </c>
+      <c r="J715" t="n">
+        <v>162.9031091803836</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="26" t="n">
+        <v>45708</v>
+      </c>
+      <c r="C716" t="n">
+        <v>1164.550048828125</v>
+      </c>
+      <c r="D716" t="n">
+        <v>335.4500122070312</v>
+      </c>
+      <c r="E716" t="n">
+        <v>255.6000061035156</v>
+      </c>
+      <c r="F716" t="n">
+        <v>1279.150024414062</v>
+      </c>
+      <c r="H716" t="n">
+        <v>7410.150238037109</v>
+      </c>
+      <c r="I716" t="n">
+        <v>0.009481622954304355</v>
+      </c>
+      <c r="J716" t="n">
+        <v>164.4476950397158</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="26" t="n">
+        <v>45709</v>
+      </c>
+      <c r="C717" t="n">
+        <v>1138.400024414062</v>
+      </c>
+      <c r="D717" t="n">
+        <v>332.9500122070312</v>
+      </c>
+      <c r="E717" t="n">
+        <v>250.6000061035156</v>
+      </c>
+      <c r="F717" t="n">
+        <v>1269</v>
+      </c>
+      <c r="H717" t="n">
+        <v>7297.700164794922</v>
+      </c>
+      <c r="I717" t="n">
+        <v>-0.01517514080415927</v>
+      </c>
+      <c r="J717" t="n">
+        <v>161.9521781125687</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="26" t="n">
+        <v>45712</v>
+      </c>
+      <c r="C718" t="n">
+        <v>1095.25</v>
+      </c>
+      <c r="D718" t="n">
+        <v>330.6000061035156</v>
+      </c>
+      <c r="E718" t="n">
+        <v>252.6499938964844</v>
+      </c>
+      <c r="F718" t="n">
+        <v>1277.150024414062</v>
+      </c>
+      <c r="H718" t="n">
+        <v>7219.800018310547</v>
+      </c>
+      <c r="I718" t="n">
+        <v>-0.01067461593724769</v>
+      </c>
+      <c r="J718" t="n">
+        <v>160.2234008110163</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="26" t="n">
+        <v>45713</v>
+      </c>
+      <c r="C719" t="n">
+        <v>1139.699951171875</v>
+      </c>
+      <c r="D719" t="n">
+        <v>331.5</v>
+      </c>
+      <c r="E719" t="n">
+        <v>248.5500030517578</v>
+      </c>
+      <c r="F719" t="n">
+        <v>1277.699951171875</v>
+      </c>
+      <c r="H719" t="n">
+        <v>7285.94987487793</v>
+      </c>
+      <c r="I719" t="n">
+        <v>0.009162283775120694</v>
+      </c>
+      <c r="J719" t="n">
+        <v>161.6914130766617</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="26" t="n">
+        <v>45715</v>
+      </c>
+      <c r="C720" t="n">
+        <v>1161.900024414062</v>
+      </c>
+      <c r="D720" t="n">
+        <v>325.6000061035156</v>
+      </c>
+      <c r="E720" t="n">
+        <v>242.3000030517578</v>
+      </c>
+      <c r="F720" t="n">
+        <v>1312.650024414062</v>
+      </c>
+      <c r="H720" t="n">
+        <v>7286.150131225586</v>
+      </c>
+      <c r="I720" t="n">
+        <v>2.748527660706767e-05</v>
+      </c>
+      <c r="J720" t="n">
+        <v>161.6958572098751</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="26" t="n">
+        <v>45716</v>
+      </c>
+      <c r="C721" t="n">
+        <v>1117.150024414062</v>
+      </c>
+      <c r="D721" t="n">
+        <v>321.1499938964844</v>
+      </c>
+      <c r="E721" t="n">
+        <v>242.1499938964844</v>
+      </c>
+      <c r="F721" t="n">
+        <v>1320.099975585938</v>
+      </c>
+      <c r="H721" t="n">
+        <v>7176.349945068359</v>
+      </c>
+      <c r="I721" t="n">
+        <v>-0.01506971228696839</v>
+      </c>
+      <c r="J721" t="n">
+        <v>159.2591471637276</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="26" t="n">
+        <v>45719</v>
+      </c>
+      <c r="C722" t="n">
+        <v>1153.599975585938</v>
+      </c>
+      <c r="D722" t="n">
+        <v>327.8500061035156</v>
+      </c>
+      <c r="E722" t="n">
+        <v>240.0399932861328</v>
+      </c>
+      <c r="F722" t="n">
+        <v>1366.150024414062</v>
+      </c>
+      <c r="H722" t="n">
+        <v>7320.729965209961</v>
+      </c>
+      <c r="I722" t="n">
+        <v>0.02011886561368437</v>
+      </c>
+      <c r="J722" t="n">
+        <v>162.4632605432646</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="26" t="n">
+        <v>45720</v>
+      </c>
+      <c r="C723" t="n">
+        <v>1155</v>
+      </c>
+      <c r="D723" t="n">
+        <v>327.1499938964844</v>
+      </c>
+      <c r="E723" t="n">
+        <v>239.5700073242188</v>
+      </c>
+      <c r="F723" t="n">
+        <v>1409.550048828125</v>
+      </c>
+      <c r="H723" t="n">
+        <v>7359.440063476562</v>
+      </c>
+      <c r="I723" t="n">
+        <v>0.005287737486638922</v>
+      </c>
+      <c r="J723" t="n">
+        <v>163.3223236162408</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="26" t="n">
+        <v>45721</v>
+      </c>
+      <c r="C724" t="n">
+        <v>1144.650024414062</v>
+      </c>
+      <c r="D724" t="n">
+        <v>344.6000061035156</v>
+      </c>
+      <c r="E724" t="n">
+        <v>243.7799987792969</v>
+      </c>
+      <c r="F724" t="n">
+        <v>1387.800048828125</v>
+      </c>
+      <c r="H724" t="n">
+        <v>7451.160125732422</v>
+      </c>
+      <c r="I724" t="n">
+        <v>0.01246291313805894</v>
+      </c>
+      <c r="J724" t="n">
+        <v>165.357795548976</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="26" t="n">
+        <v>45722</v>
+      </c>
+      <c r="C725" t="n">
+        <v>1138.099975585938</v>
+      </c>
+      <c r="D725" t="n">
+        <v>343.1499938964844</v>
+      </c>
+      <c r="E725" t="n">
+        <v>242.8399963378906</v>
+      </c>
+      <c r="F725" t="n">
+        <v>1406.25</v>
+      </c>
+      <c r="H725" t="n">
+        <v>7441.229888916016</v>
+      </c>
+      <c r="I725" t="n">
+        <v>-0.00133271016175218</v>
+      </c>
+      <c r="J725" t="n">
+        <v>165.1374215345229</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="26" t="n">
+        <v>45723</v>
+      </c>
+      <c r="C726" t="n">
+        <v>1120.849975585938</v>
+      </c>
+      <c r="D726" t="n">
+        <v>344.4500122070312</v>
+      </c>
+      <c r="E726" t="n">
+        <v>242.3099975585938</v>
+      </c>
+      <c r="F726" t="n">
+        <v>1405.449951171875</v>
+      </c>
+      <c r="H726" t="n">
+        <v>7410.019958496094</v>
+      </c>
+      <c r="I726" t="n">
+        <v>-0.00419418978929951</v>
+      </c>
+      <c r="J726" t="n">
+        <v>164.4448038472916</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="26" t="n">
+        <v>45726</v>
+      </c>
+      <c r="C727" t="n">
+        <v>1105.550048828125</v>
+      </c>
+      <c r="D727" t="n">
+        <v>345</v>
+      </c>
+      <c r="E727" t="n">
+        <v>237.3300018310547</v>
+      </c>
+      <c r="F727" t="n">
+        <v>1397.75</v>
+      </c>
+      <c r="H727" t="n">
+        <v>7340.160110473633</v>
+      </c>
+      <c r="I727" t="n">
+        <v>-0.00942775436689099</v>
+      </c>
+      <c r="J727" t="n">
+        <v>162.8944586297077</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="26" t="n">
+        <v>45727</v>
+      </c>
+      <c r="C728" t="n">
+        <v>1076.25</v>
+      </c>
+      <c r="D728" t="n">
+        <v>346</v>
+      </c>
+      <c r="E728" t="n">
+        <v>239.9900054931641</v>
+      </c>
+      <c r="F728" t="n">
+        <v>1406.099975585938</v>
+      </c>
+      <c r="H728" t="n">
+        <v>7314.530014038086</v>
+      </c>
+      <c r="I728" t="n">
+        <v>-0.003491762584166991</v>
+      </c>
+      <c r="J728" t="n">
+        <v>162.3256698538964</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="26" t="n">
+        <v>45728</v>
+      </c>
+      <c r="C729" t="n">
+        <v>1068.650024414062</v>
+      </c>
+      <c r="D729" t="n">
+        <v>357.6499938964844</v>
+      </c>
+      <c r="E729" t="n">
+        <v>243.2599945068359</v>
+      </c>
+      <c r="F729" t="n">
+        <v>1445.449951171875</v>
+      </c>
+      <c r="H729" t="n">
+        <v>7431.469924926758</v>
+      </c>
+      <c r="I729" t="n">
+        <v>0.01598734445880189</v>
+      </c>
+      <c r="J729" t="n">
+        <v>164.9208262523564</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="26" t="n">
+        <v>45729</v>
+      </c>
+      <c r="C730" t="n">
+        <v>1076.75</v>
+      </c>
+      <c r="D730" t="n">
+        <v>344.25</v>
+      </c>
+      <c r="E730" t="n">
+        <v>240.0500030517578</v>
+      </c>
+      <c r="F730" t="n">
+        <v>1402.550048828125</v>
+      </c>
+      <c r="H730" t="n">
+        <v>7301.90007019043</v>
+      </c>
+      <c r="I730" t="n">
+        <v>-0.01743529288892401</v>
+      </c>
+      <c r="J730" t="n">
+        <v>162.0453833431632</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="26" t="n">
+        <v>45733</v>
+      </c>
+      <c r="C731" t="n">
+        <v>1072.800048828125</v>
+      </c>
+      <c r="D731" t="n">
+        <v>352.8999938964844</v>
+      </c>
+      <c r="E731" t="n">
+        <v>241.2400054931641</v>
+      </c>
+      <c r="F731" t="n">
+        <v>1458.449951171875</v>
+      </c>
+      <c r="H731" t="n">
+        <v>7410.13005065918</v>
+      </c>
+      <c r="I731" t="n">
+        <v>0.01482216675500565</v>
+      </c>
+      <c r="J731" t="n">
+        <v>164.4472470369544</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="26" t="n">
+        <v>45734</v>
+      </c>
+      <c r="C732" t="n">
+        <v>1072.800048828125</v>
+      </c>
+      <c r="D732" t="n">
+        <v>352.8999938964844</v>
+      </c>
+      <c r="E732" t="n">
+        <v>241.2400054931641</v>
+      </c>
+      <c r="F732" t="n">
+        <v>1458.449951171875</v>
+      </c>
+      <c r="H732" t="n">
+        <v>7410.13005065918</v>
+      </c>
+      <c r="I732" t="n">
+        <v>0</v>
+      </c>
+      <c r="J732" t="n">
+        <v>164.4472470369544</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="26" t="n">
+        <v>45735</v>
+      </c>
+      <c r="C733" t="n">
+        <v>1078.75</v>
+      </c>
+      <c r="D733" t="n">
+        <v>360.4500122070312</v>
+      </c>
+      <c r="E733" t="n">
+        <v>251.25</v>
+      </c>
+      <c r="F733" t="n">
+        <v>1495.199951171875</v>
+      </c>
+      <c r="H733" t="n">
+        <v>7574.150024414062</v>
+      </c>
+      <c r="I733" t="n">
+        <v>0.02213456074772833</v>
+      </c>
+      <c r="J733" t="n">
+        <v>168.0872146162905</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="26" t="n">
+        <v>45736</v>
+      </c>
+      <c r="C734" t="n">
+        <v>1069.800048828125</v>
+      </c>
+      <c r="D734" t="n">
+        <v>357.5</v>
+      </c>
+      <c r="E734" t="n">
+        <v>250.7100067138672</v>
+      </c>
+      <c r="F734" t="n">
+        <v>1469.900024414062</v>
+      </c>
+      <c r="H734" t="n">
+        <v>7509.470169067383</v>
+      </c>
+      <c r="I734" t="n">
+        <v>-0.008539552971382203</v>
+      </c>
+      <c r="J734" t="n">
+        <v>166.6518249432626</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="26" t="n">
+        <v>45737</v>
+      </c>
+      <c r="C735" t="n">
+        <v>1073.849975585938</v>
+      </c>
+      <c r="D735" t="n">
+        <v>362.8500061035156</v>
+      </c>
+      <c r="E735" t="n">
+        <v>253.2599945068359</v>
+      </c>
+      <c r="F735" t="n">
+        <v>1429.5</v>
+      </c>
+      <c r="H735" t="n">
+        <v>7527.11994934082</v>
+      </c>
+      <c r="I735" t="n">
+        <v>0.002350336292184707</v>
+      </c>
+      <c r="J735" t="n">
+        <v>167.0435127755856</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="26" t="n">
+        <v>45740</v>
+      </c>
+      <c r="C736" t="n">
+        <v>1076.650024414062</v>
+      </c>
+      <c r="D736" t="n">
+        <v>362.2000122070312</v>
+      </c>
+      <c r="E736" t="n">
+        <v>254.7200012207031</v>
+      </c>
+      <c r="F736" t="n">
+        <v>1449.099975585938</v>
+      </c>
+      <c r="H736" t="n">
+        <v>7558.640106201172</v>
+      </c>
+      <c r="I736" t="n">
+        <v>0.004187545445334893</v>
+      </c>
+      <c r="J736" t="n">
+        <v>167.7430150766817</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="26" t="n">
+        <v>45741</v>
+      </c>
+      <c r="C737" t="n">
+        <v>1070.699951171875</v>
+      </c>
+      <c r="D737" t="n">
+        <v>358.7999877929688</v>
+      </c>
+      <c r="E737" t="n">
+        <v>255.3999938964844</v>
+      </c>
+      <c r="F737" t="n">
+        <v>1422.050048828125</v>
+      </c>
+      <c r="H737" t="n">
+        <v>7504.049835205078</v>
+      </c>
+      <c r="I737" t="n">
+        <v>-0.007222234453431303</v>
+      </c>
+      <c r="J737" t="n">
+        <v>166.5315356938725</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="26" t="n">
+        <v>45742</v>
+      </c>
+      <c r="C738" t="n">
+        <v>1055.300048828125</v>
+      </c>
+      <c r="D738" t="n">
+        <v>360.1000061035156</v>
+      </c>
+      <c r="E738" t="n">
+        <v>257.6499938964844</v>
+      </c>
+      <c r="F738" t="n">
+        <v>1428.650024414062</v>
+      </c>
+      <c r="H738" t="n">
+        <v>7503.400115966797</v>
+      </c>
+      <c r="I738" t="n">
+        <v>-8.658247913454773e-05</v>
+      </c>
+      <c r="J738" t="n">
+        <v>166.517116980658</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="26" t="n">
+        <v>45743</v>
+      </c>
+      <c r="C739" t="n">
+        <v>1011.200012207031</v>
+      </c>
+      <c r="D739" t="n">
+        <v>354.75</v>
+      </c>
+      <c r="E739" t="n">
+        <v>256.2699890136719</v>
+      </c>
+      <c r="F739" t="n">
+        <v>1423.400024414062</v>
+      </c>
+      <c r="H739" t="n">
+        <v>7368.189971923828</v>
+      </c>
+      <c r="I739" t="n">
+        <v>-0.01801984992846769</v>
+      </c>
+      <c r="J739" t="n">
+        <v>163.5165035221455</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="26" t="n">
+        <v>45744</v>
+      </c>
+      <c r="C740" t="n">
+        <v>1013.299987792969</v>
+      </c>
+      <c r="D740" t="n">
+        <v>353.9500122070312</v>
+      </c>
+      <c r="E740" t="n">
+        <v>256.2699890136719</v>
+      </c>
+      <c r="F740" t="n">
+        <v>1458.699951171875</v>
+      </c>
+      <c r="H740" t="n">
+        <v>7402.889923095703</v>
+      </c>
+      <c r="I740" t="n">
+        <v>0.004709426779724421</v>
+      </c>
+      <c r="J740" t="n">
+        <v>164.2865725227596</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="26" t="n">
+        <v>45748</v>
+      </c>
+      <c r="C741" t="n">
+        <v>1042.050048828125</v>
+      </c>
+      <c r="D741" t="n">
+        <v>345.6000061035156</v>
+      </c>
+      <c r="E741" t="n">
+        <v>258.2000122070312</v>
+      </c>
+      <c r="F741" t="n">
+        <v>1352.050048828125</v>
+      </c>
+      <c r="H741" t="n">
+        <v>7317.150268554688</v>
+      </c>
+      <c r="I741" t="n">
+        <v>-0.01158191671519026</v>
+      </c>
+      <c r="J741" t="n">
+        <v>162.3838191223769</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="26" t="n">
+        <v>45749</v>
+      </c>
+      <c r="C742" t="n">
+        <v>1060.75</v>
+      </c>
+      <c r="D742" t="n">
+        <v>339.2999877929688</v>
+      </c>
+      <c r="E742" t="n">
+        <v>261.25</v>
+      </c>
+      <c r="F742" t="n">
+        <v>1344.800048828125</v>
+      </c>
+      <c r="H742" t="n">
+        <v>7330.849975585938</v>
+      </c>
+      <c r="I742" t="n">
+        <v>0.001872273566681311</v>
+      </c>
+      <c r="J742" t="n">
+        <v>162.6878460545765</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="26" t="n">
+        <v>45750</v>
+      </c>
+      <c r="C743" t="n">
+        <v>1073.25</v>
+      </c>
+      <c r="D743" t="n">
+        <v>335.5499877929688</v>
+      </c>
+      <c r="E743" t="n">
+        <v>264</v>
+      </c>
+      <c r="F743" t="n">
+        <v>1352</v>
+      </c>
+      <c r="H743" t="n">
+        <v>7359.799926757812</v>
+      </c>
+      <c r="I743" t="n">
+        <v>0.003949057922108289</v>
+      </c>
+      <c r="J743" t="n">
+        <v>163.3303097818691</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="26" t="n">
+        <v>45751</v>
+      </c>
+      <c r="C744" t="n">
+        <v>1067.199951171875</v>
+      </c>
+      <c r="D744" t="n">
+        <v>329.2999877929688</v>
+      </c>
+      <c r="E744" t="n">
+        <v>258.2999877929688</v>
+      </c>
+      <c r="F744" t="n">
+        <v>1298.099975585938</v>
+      </c>
+      <c r="H744" t="n">
+        <v>7216.399719238281</v>
+      </c>
+      <c r="I744" t="n">
+        <v>-0.01948425350506815</v>
+      </c>
+      <c r="J744" t="n">
+        <v>160.1479406210179</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="26" t="n">
+        <v>45754</v>
+      </c>
+      <c r="C745" t="n">
+        <v>1041.550048828125</v>
+      </c>
+      <c r="D745" t="n">
+        <v>330.2999877929688</v>
+      </c>
+      <c r="E745" t="n">
+        <v>245.1999969482422</v>
+      </c>
+      <c r="F745" t="n">
+        <v>1294.949951171875</v>
+      </c>
+      <c r="H745" t="n">
+        <v>7076.249954223633</v>
+      </c>
+      <c r="I745" t="n">
+        <v>-0.01942100915516384</v>
+      </c>
+      <c r="J745" t="n">
+        <v>157.0377060000364</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="26" t="n">
+        <v>45755</v>
+      </c>
+      <c r="C746" t="n">
+        <v>1050.5</v>
+      </c>
+      <c r="D746" t="n">
+        <v>332.6499938964844</v>
+      </c>
+      <c r="E746" t="n">
+        <v>248.8999938964844</v>
+      </c>
+      <c r="F746" t="n">
+        <v>1320.650024414062</v>
+      </c>
+      <c r="H746" t="n">
+        <v>7159.849945068359</v>
+      </c>
+      <c r="I746" t="n">
+        <v>0.01181416589090778</v>
+      </c>
+      <c r="J746" t="n">
+        <v>158.8929755098484</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="26" t="n">
+        <v>45756</v>
+      </c>
+      <c r="C747" t="n">
+        <v>1044.099975585938</v>
+      </c>
+      <c r="D747" t="n">
+        <v>328.7999877929688</v>
+      </c>
+      <c r="E747" t="n">
+        <v>246.3000030517578</v>
+      </c>
+      <c r="F747" t="n">
+        <v>1277.75</v>
+      </c>
+      <c r="H747" t="n">
+        <v>7062.849899291992</v>
+      </c>
+      <c r="I747" t="n">
+        <v>-0.01354777635293599</v>
+      </c>
+      <c r="J747" t="n">
+        <v>156.7403290135885</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="26" t="n">
+        <v>45758</v>
+      </c>
+      <c r="C748" t="n">
+        <v>1061.849975585938</v>
+      </c>
+      <c r="D748" t="n">
+        <v>334.1000061035156</v>
+      </c>
+      <c r="E748" t="n">
+        <v>254</v>
+      </c>
+      <c r="F748" t="n">
+        <v>1284.900024414062</v>
+      </c>
+      <c r="H748" t="n">
+        <v>7191.200012207031</v>
+      </c>
+      <c r="I748" t="n">
+        <v>0.01817256698714571</v>
+      </c>
+      <c r="J748" t="n">
+        <v>159.5887031421752</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="26" t="n">
+        <v>45762</v>
+      </c>
+      <c r="C749" t="n">
+        <v>1093.199951171875</v>
+      </c>
+      <c r="D749" t="n">
+        <v>335.6000061035156</v>
+      </c>
+      <c r="E749" t="n">
+        <v>263.6499938964844</v>
+      </c>
+      <c r="F749" t="n">
+        <v>1289.300048828125</v>
+      </c>
+      <c r="H749" t="n">
+        <v>7334.849945068359</v>
+      </c>
+      <c r="I749" t="n">
+        <v>0.01997579439001599</v>
+      </c>
+      <c r="J749" t="n">
+        <v>162.7766142631126</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="26" t="n">
+        <v>45763</v>
+      </c>
+      <c r="C750" t="n">
+        <v>1095</v>
+      </c>
+      <c r="D750" t="n">
+        <v>335.1000061035156</v>
+      </c>
+      <c r="E750" t="n">
+        <v>264.2999877929688</v>
+      </c>
+      <c r="F750" t="n">
+        <v>1277.099975585938</v>
+      </c>
+      <c r="H750" t="n">
+        <v>7327.799926757812</v>
+      </c>
+      <c r="I750" t="n">
+        <v>-0.0009611673535716988</v>
+      </c>
+      <c r="J750" t="n">
+        <v>162.6201586955579</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="26" t="n">
+        <v>45764</v>
+      </c>
+      <c r="C751" t="n">
+        <v>1095.900024414062</v>
+      </c>
+      <c r="D751" t="n">
+        <v>332.2000122070312</v>
+      </c>
+      <c r="E751" t="n">
+        <v>266.2000122070312</v>
+      </c>
+      <c r="F751" t="n">
+        <v>1284.900024414062</v>
+      </c>
+      <c r="H751" t="n">
+        <v>7333.300231933594</v>
+      </c>
+      <c r="I751" t="n">
+        <v>0.0007506079902231804</v>
+      </c>
+      <c r="J751" t="n">
+        <v>162.7422226860462</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="26" t="n">
+        <v>45768</v>
+      </c>
+      <c r="C752" t="n">
+        <v>1094</v>
+      </c>
+      <c r="D752" t="n">
+        <v>339.4500122070312</v>
+      </c>
+      <c r="E752" t="n">
+        <v>269.1499938964844</v>
+      </c>
+      <c r="F752" t="n">
+        <v>1318</v>
+      </c>
+      <c r="H752" t="n">
+        <v>7426.750030517578</v>
+      </c>
+      <c r="I752" t="n">
+        <v>0.01274321187301835</v>
+      </c>
+      <c r="J752" t="n">
+        <v>164.8160813104204</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="26" t="n">
+        <v>45769</v>
+      </c>
+      <c r="C753" t="n">
+        <v>1101.900024414062</v>
+      </c>
+      <c r="D753" t="n">
+        <v>353.1499938964844</v>
+      </c>
+      <c r="E753" t="n">
+        <v>271.9500122070312</v>
+      </c>
+      <c r="F753" t="n">
+        <v>1344.599975585938</v>
+      </c>
+      <c r="H753" t="n">
+        <v>7570.950073242188</v>
+      </c>
+      <c r="I753" t="n">
+        <v>0.01941630486175928</v>
+      </c>
+      <c r="J753" t="n">
+        <v>168.016200591264</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="26" t="n">
+        <v>45770</v>
+      </c>
+      <c r="C754" t="n">
+        <v>1101.099975585938</v>
+      </c>
+      <c r="D754" t="n">
+        <v>343.7999877929688</v>
+      </c>
+      <c r="E754" t="n">
+        <v>272.8999938964844</v>
+      </c>
+      <c r="F754" t="n">
+        <v>1299</v>
+      </c>
+      <c r="H754" t="n">
+        <v>7474.299835205078</v>
+      </c>
+      <c r="I754" t="n">
+        <v>-0.01276593255827928</v>
+      </c>
+      <c r="J754" t="n">
+        <v>165.8713171058176</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="26" t="n">
+        <v>45771</v>
+      </c>
+      <c r="C755" t="n">
+        <v>1096.199951171875</v>
+      </c>
+      <c r="D755" t="n">
+        <v>342.8999938964844</v>
+      </c>
+      <c r="E755" t="n">
+        <v>273.2000122070312</v>
+      </c>
+      <c r="F755" t="n">
+        <v>1276</v>
+      </c>
+      <c r="H755" t="n">
+        <v>7438.199951171875</v>
+      </c>
+      <c r="I755" t="n">
+        <v>-0.004829868326015934</v>
+      </c>
+      <c r="J755" t="n">
+        <v>165.0701804851337</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="26" t="n">
+        <v>45772</v>
+      </c>
+      <c r="C756" t="n">
+        <v>1079.099975585938</v>
+      </c>
+      <c r="D756" t="n">
+        <v>334.8500061035156</v>
+      </c>
+      <c r="E756" t="n">
+        <v>264.1499938964844</v>
+      </c>
+      <c r="F756" t="n">
+        <v>1229.400024414062</v>
+      </c>
+      <c r="H756" t="n">
+        <v>7245.749969482422</v>
+      </c>
+      <c r="I756" t="n">
+        <v>-0.02587319283600772</v>
+      </c>
+      <c r="J756" t="n">
+        <v>160.7992878739672</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="26" t="n">
+        <v>45775</v>
+      </c>
+      <c r="C757" t="n">
+        <v>1072.599975585938</v>
+      </c>
+      <c r="D757" t="n">
+        <v>332.8500061035156</v>
+      </c>
+      <c r="E757" t="n">
+        <v>273.7999877929688</v>
+      </c>
+      <c r="F757" t="n">
+        <v>1246.400024414062</v>
+      </c>
+      <c r="H757" t="n">
+        <v>7305.299926757812</v>
+      </c>
+      <c r="I757" t="n">
+        <v>0.008218605047952599</v>
+      </c>
+      <c r="J757" t="n">
+        <v>162.1208337129954</v>
       </c>
     </row>
   </sheetData>
